--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,13 +543,13 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>28.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -580,15 +580,13 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>213</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -606,7 +604,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bujumiro_B</t>
+          <t>Bujumiro_A</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -619,14 +617,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="I5" t="n">
-        <v>304</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +643,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bujumiro_B</t>
+          <t>Bujumiro_A</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -658,13 +656,13 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -695,14 +693,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="I7" t="n">
-        <v>191</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
@@ -721,7 +719,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kanyamburara</t>
+          <t>Bujumiro_B</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -734,14 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>636</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>400</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="9">
@@ -760,7 +756,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kanyamburara</t>
+          <t>Bujumiro_B</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -777,7 +773,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -797,7 +793,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kanyamburara</t>
+          <t>Bujumiro_B</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -814,10 +810,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="I10" t="n">
-        <v>300</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11">
@@ -836,7 +832,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -853,10 +849,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>388</v>
+        <v>636</v>
       </c>
       <c r="I11" t="n">
-        <v>376</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
@@ -875,7 +871,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -888,13 +884,13 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>24</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,7 +908,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -925,15 +921,13 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>291</v>
-      </c>
-      <c r="I13" t="n">
-        <v>282</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -951,7 +945,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -964,14 +958,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>232</v>
+        <v>477</v>
       </c>
       <c r="I14" t="n">
-        <v>168</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15">
@@ -990,7 +984,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1003,13 +997,13 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>15</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1027,7 +1021,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1040,14 +1034,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>174</v>
+        <v>388</v>
       </c>
       <c r="I16" t="n">
-        <v>126</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
@@ -1061,12 +1055,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1079,14 +1073,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>126</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>84</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="18">
@@ -1100,12 +1092,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1122,7 +1114,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1137,12 +1129,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1159,10 +1151,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="I19" t="n">
-        <v>84</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20">
@@ -1176,12 +1168,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1194,14 +1186,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>165</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>138</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -1215,12 +1205,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1233,13 +1223,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>232</v>
+      </c>
+      <c r="I21" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,12 +1244,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1270,14 +1262,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>165</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1291,12 +1281,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1309,15 +1299,13 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>198</v>
-      </c>
-      <c r="I23" t="n">
-        <v>156</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1330,12 +1318,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1348,13 +1336,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>17</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="I24" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1367,12 +1357,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1385,14 +1375,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>198</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1411,7 +1399,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1428,10 +1416,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="I26" t="n">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1450,7 +1438,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1463,13 +1451,13 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1487,7 +1475,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1500,15 +1488,13 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>180</v>
-      </c>
-      <c r="I28" t="n">
-        <v>153</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1526,7 +1512,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1539,14 +1525,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="I29" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -1565,7 +1551,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1578,13 +1564,13 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>14</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1602,7 +1588,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1615,14 +1601,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I31" t="n">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -1636,12 +1622,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kagorogoro_A</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1654,14 +1640,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>135</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>135</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="33">
@@ -1675,12 +1659,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kagorogoro_A</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1697,7 +1681,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1712,12 +1696,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kagorogoro_A</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1734,10 +1718,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="I34" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
@@ -1751,12 +1735,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kagorogoro_B</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1769,14 +1753,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>117</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>117</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -1790,12 +1772,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kagorogoro_B</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1808,13 +1790,15 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="I36" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1827,12 +1811,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kagorogoro_B</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1845,14 +1829,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>117</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>117</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="38">
@@ -1866,12 +1848,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kahenda</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1884,15 +1866,13 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>156</v>
-      </c>
-      <c r="I38" t="n">
-        <v>156</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1905,12 +1885,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kahenda</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1923,13 +1903,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="I39" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,12 +1924,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kahenda</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1960,14 +1942,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>156</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -1981,12 +1961,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2003,10 +1983,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I41" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42">
@@ -2020,12 +2000,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2038,13 +2018,13 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>15</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2057,12 +2037,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2075,15 +2055,13 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>177</v>
-      </c>
-      <c r="I43" t="n">
-        <v>177</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,12 +2074,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2114,14 +2092,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I44" t="n">
-        <v>123</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -2135,12 +2113,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2153,13 +2131,13 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>11</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,12 +2150,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2190,14 +2168,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="I46" t="n">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47">
@@ -2211,12 +2189,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2229,14 +2207,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>192</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>189</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="48">
@@ -2250,12 +2226,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2272,7 +2248,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2287,12 +2263,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2309,10 +2285,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I49" t="n">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50">
@@ -2326,12 +2302,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2344,14 +2320,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>153</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>150</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -2370,7 +2344,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2383,13 +2357,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>13</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="I51" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2407,7 +2383,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2420,14 +2396,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>153</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>150</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="53">
@@ -2446,7 +2420,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2459,15 +2433,13 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>189</v>
-      </c>
-      <c r="I53" t="n">
-        <v>186</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2485,7 +2457,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2498,13 +2470,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>16</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="I54" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2522,7 +2496,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2535,14 +2509,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>189</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -2556,12 +2528,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kapapari</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2578,10 +2550,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>372</v>
+        <v>117</v>
       </c>
       <c r="I56" t="n">
-        <v>368</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
@@ -2595,12 +2567,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kapapari</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2613,13 +2585,13 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>23</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,12 +2604,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kapapari</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2650,15 +2622,13 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>279</v>
-      </c>
-      <c r="I58" t="n">
-        <v>276</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2671,12 +2641,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Karere_Nyakacwamba</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2689,14 +2659,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>408</v>
+        <v>117</v>
       </c>
       <c r="I59" t="n">
-        <v>384</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
@@ -2710,12 +2680,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Karere_Nyakacwamba</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2728,13 +2698,13 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>26</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2747,12 +2717,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Karere_Nyakacwamba</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2765,14 +2735,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="I61" t="n">
-        <v>288</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62">
@@ -2786,12 +2756,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2804,14 +2774,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>336</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>328</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="63">
@@ -2825,12 +2793,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2847,7 +2815,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2862,12 +2830,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2884,10 +2852,10 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="I64" t="n">
-        <v>246</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -2901,12 +2869,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2919,14 +2887,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>700</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>676</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="66">
@@ -2940,12 +2906,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2958,13 +2924,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>44</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>177</v>
+      </c>
+      <c r="I66" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2977,12 +2945,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2995,14 +2963,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>525</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>507</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="68">
@@ -3016,12 +2982,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3034,15 +3000,13 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>300</v>
-      </c>
-      <c r="I68" t="n">
-        <v>292</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3055,12 +3019,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3073,13 +3037,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>19</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>177</v>
+      </c>
+      <c r="I69" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3092,12 +3058,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3110,14 +3076,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>225</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>219</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
@@ -3131,12 +3095,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3153,10 +3117,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>436</v>
+        <v>120</v>
       </c>
       <c r="I71" t="n">
-        <v>436</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
@@ -3170,12 +3134,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3188,13 +3152,13 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>28</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3207,12 +3171,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3225,15 +3189,13 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>327</v>
-      </c>
-      <c r="I73" t="n">
-        <v>327</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3246,12 +3208,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3264,14 +3226,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="I74" t="n">
-        <v>280</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
@@ -3285,12 +3247,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3303,13 +3265,13 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>18</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3322,12 +3284,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3340,14 +3302,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="I76" t="n">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77">
@@ -3361,12 +3323,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3379,14 +3341,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>484</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>476</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="78">
@@ -3400,12 +3360,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3422,7 +3382,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3437,12 +3397,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3459,10 +3419,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="I79" t="n">
-        <v>357</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80">
@@ -3471,17 +3431,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3494,13 +3454,13 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>415</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3508,17 +3468,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3531,13 +3491,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>34</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I81" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3545,17 +3507,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3568,13 +3530,13 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3582,17 +3544,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3605,11 +3567,11 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>775</v>
+        <v>13</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3619,17 +3581,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3642,13 +3604,15 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>63</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I84" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3656,17 +3620,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3679,13 +3643,13 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3693,17 +3657,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3720,9 +3684,11 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>505</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>189</v>
+      </c>
+      <c r="I86" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3730,17 +3696,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3753,13 +3719,13 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>40</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>15.75</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3767,17 +3733,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3790,11 +3756,11 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3804,17 +3770,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3827,13 +3793,15 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>400</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>189</v>
+      </c>
+      <c r="I89" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3841,17 +3809,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3864,13 +3832,13 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>32</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3878,17 +3846,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3901,13 +3869,15 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I91" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3915,17 +3885,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3938,13 +3908,13 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>415</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3952,17 +3922,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3979,7 +3949,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3989,17 +3959,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4016,9 +3986,11 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="I94" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4026,17 +3998,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4049,13 +4021,13 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>585</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4063,17 +4035,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4086,13 +4058,15 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>46</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>408</v>
+      </c>
+      <c r="I96" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4100,17 +4074,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4123,13 +4097,13 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4137,17 +4111,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4160,11 +4134,11 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1005</v>
+        <v>26</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -4174,17 +4148,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4197,13 +4171,15 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>80</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="I99" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4211,17 +4187,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4234,13 +4210,13 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4248,17 +4224,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4275,9 +4251,11 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>605</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>336</v>
+      </c>
+      <c r="I101" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4285,17 +4263,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4308,13 +4286,13 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>48</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4322,17 +4300,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4345,11 +4323,11 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -4359,17 +4337,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4382,13 +4360,15 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>560</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>252</v>
+      </c>
+      <c r="I104" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4396,17 +4376,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4419,13 +4399,13 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>45</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4433,17 +4413,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4456,13 +4436,15 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="I106" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4470,17 +4452,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4493,13 +4475,13 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>425</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4507,17 +4489,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4534,7 +4516,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4544,17 +4526,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4571,9 +4553,11 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="I109" t="n">
+        <v>525</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4581,17 +4565,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4604,13 +4588,13 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>1190</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4618,17 +4602,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4641,13 +4625,15 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>95</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="I111" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4655,17 +4641,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4678,13 +4664,13 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4692,17 +4678,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4715,11 +4701,11 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>640</v>
+        <v>19</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
@@ -4729,17 +4715,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4752,13 +4738,15 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>51</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>225</v>
+      </c>
+      <c r="I114" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4766,17 +4754,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4789,13 +4777,13 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4803,17 +4791,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4830,9 +4818,11 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>350</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>436</v>
+      </c>
+      <c r="I116" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4840,17 +4830,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4863,13 +4853,13 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>28</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4877,17 +4867,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4900,11 +4890,11 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I118" t="inlineStr"/>
     </row>
@@ -4914,17 +4904,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4937,13 +4927,15 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>580</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>327</v>
+      </c>
+      <c r="I119" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4951,17 +4943,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4974,13 +4966,13 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>47</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4988,17 +4980,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5011,13 +5003,15 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="I121" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5025,17 +5019,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5048,13 +5042,13 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>725</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>17.75</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5062,17 +5056,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5089,7 +5083,7 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I123" t="inlineStr"/>
     </row>
@@ -5099,17 +5093,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5126,9 +5120,11 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="I124" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5136,17 +5132,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5159,13 +5155,13 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>340</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5173,17 +5169,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5196,13 +5192,15 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>27</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>484</v>
+      </c>
+      <c r="I126" t="n">
+        <v>484</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5210,17 +5208,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5233,13 +5231,13 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>30.25</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5247,17 +5245,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5270,11 +5268,11 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>920</v>
+        <v>31</v>
       </c>
       <c r="I128" t="inlineStr"/>
     </row>
@@ -5284,17 +5282,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5307,13 +5305,15 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>73</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>363</v>
+      </c>
+      <c r="I129" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5321,36 +5321,2399 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>Kitagwenda</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Nyakacwamba</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Rwengwe_Nyakacwamba</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>Rakai</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Kamuli</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>415</v>
+      </c>
+      <c r="I131" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Kamuli</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>34</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Kamuli</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Kanoni_Rakai</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>775</v>
+      </c>
+      <c r="I134" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Kanoni_Rakai</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>63</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Kanoni_Rakai</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Kikakata</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>505</v>
+      </c>
+      <c r="I137" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Kikakata</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>40</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Kikakata</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Mpaama</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>400</v>
+      </c>
+      <c r="I140" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Mpaama</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>32</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Kanoni</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Mpaama</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Kammengo</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>415</v>
+      </c>
+      <c r="I143" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kammengo</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Kammengo</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>33</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Kammengo</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Kisimbanyiriri</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>585</v>
+      </c>
+      <c r="I147" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Kisimbanyiriri</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Kisimbanyiriri</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>46</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Kisimbanyiriri</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Kitonezi</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1005</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Kitonezi</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>80</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Kitonezi</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_A</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>605</v>
+      </c>
+      <c r="I154" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_A</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_A</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>48</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_A</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_B</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>560</v>
+      </c>
+      <c r="I158" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_B</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_B</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>45</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Kiwaguzi_B</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Kyaluwakula</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>425</v>
+      </c>
+      <c r="I162" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Kyaluwakula</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kyaluwakula</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>34</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kyaluwakula</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Kyengeza_Rakai</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1190</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Kyengeza_Rakai</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Kyengeza_Rakai</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>95</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Kyengeza_Rakai</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Mikunyu</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>640</v>
+      </c>
+      <c r="I170" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Mikunyu</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Mikunyu</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>51</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Mikunyu</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Nabyala</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>350</v>
+      </c>
+      <c r="I174" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Nabyala</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Nabyala</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>28</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Nabyala</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>580</v>
+      </c>
+      <c r="I178" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>47</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Kasensero</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t>Kyamakanaga</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_A</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>725</v>
+      </c>
+      <c r="I182" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_A</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_A</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>58</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_A</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_B</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>340</v>
+      </c>
+      <c r="I186" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_B</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_B</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>27</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Kyamakanaga_B</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>Nnongo_A</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
+      <c r="E190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>920</v>
+      </c>
+      <c r="I190" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>68.40000000000001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>73</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>Maize</t>
         </is>
       </c>
-      <c r="H130" t="n">
+      <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kanyamburara</t>
+          <t>Bujumiro_B</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -845,14 +845,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>636</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>536</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -884,12 +882,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>636</v>
+      </c>
       <c r="I12" t="n">
-        <v>21.5</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
@@ -921,13 +921,13 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>40</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,15 +958,13 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>477</v>
-      </c>
-      <c r="I14" t="n">
-        <v>402</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -997,12 +995,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>477</v>
+      </c>
       <c r="I15" t="n">
-        <v>86</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1034,14 +1034,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>388</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>376</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -1073,12 +1071,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>388</v>
+      </c>
       <c r="I17" t="n">
-        <v>23.25</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18">
@@ -1110,13 +1110,13 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>24</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1147,15 +1147,13 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>291</v>
-      </c>
-      <c r="I19" t="n">
-        <v>282</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1186,12 +1184,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>291</v>
+      </c>
       <c r="I20" t="n">
-        <v>93</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1223,14 +1223,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>232</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>192</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -1262,12 +1260,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>232</v>
+      </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
@@ -1299,13 +1299,13 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>15</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1336,15 +1336,13 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>174</v>
-      </c>
-      <c r="I24" t="n">
-        <v>144</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1375,12 +1373,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>174</v>
+      </c>
       <c r="I25" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Muyenga</t>
+          <t>Bujumiro</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1412,14 +1412,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>126</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1451,12 +1449,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>126</v>
+      </c>
       <c r="I27" t="n">
-        <v>10.5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1488,13 +1488,13 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1525,15 +1525,13 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>126</v>
-      </c>
-      <c r="I29" t="n">
-        <v>126</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1564,12 +1562,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>126</v>
+      </c>
       <c r="I30" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1601,14 +1601,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>165</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -1640,12 +1638,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>165</v>
+      </c>
       <c r="I32" t="n">
-        <v>13.75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -1677,13 +1677,13 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>13.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1714,15 +1714,13 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>165</v>
-      </c>
-      <c r="I34" t="n">
-        <v>159</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1753,12 +1751,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>165</v>
+      </c>
       <c r="I35" t="n">
-        <v>55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1790,14 +1790,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>198</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>192</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -1829,12 +1827,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>198</v>
+      </c>
       <c r="I37" t="n">
-        <v>15.5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
@@ -1866,13 +1866,13 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>17</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1903,15 +1903,13 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>198</v>
-      </c>
-      <c r="I39" t="n">
-        <v>192</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,12 +1940,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>198</v>
+      </c>
       <c r="I40" t="n">
-        <v>62</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1979,14 +1979,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>180</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
@@ -2018,12 +2016,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>180</v>
+      </c>
       <c r="I42" t="n">
-        <v>14.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
@@ -2055,13 +2055,13 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2092,15 +2092,13 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>180</v>
-      </c>
-      <c r="I44" t="n">
-        <v>180</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2131,12 +2129,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>180</v>
+      </c>
       <c r="I45" t="n">
-        <v>58</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2168,14 +2168,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>171</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -2207,12 +2205,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>171</v>
+      </c>
       <c r="I47" t="n">
-        <v>14.25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
@@ -2244,13 +2244,13 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>14</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>14.25</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,15 +2281,13 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>171</v>
-      </c>
-      <c r="I49" t="n">
-        <v>165</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,12 +2318,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>171</v>
+      </c>
       <c r="I50" t="n">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nganiko</t>
+          <t>Muyenga</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kagorogoro_A</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2357,14 +2357,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>135</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -2396,12 +2394,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>135</v>
+      </c>
       <c r="I52" t="n">
-        <v>11.25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
@@ -2433,13 +2433,13 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>11.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2470,15 +2470,13 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>135</v>
-      </c>
-      <c r="I54" t="n">
-        <v>135</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2509,12 +2507,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>135</v>
+      </c>
       <c r="I55" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kagorogoro_B</t>
+          <t>Kagorogoro_A</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2546,14 +2546,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>117</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>117</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
@@ -2585,12 +2583,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>117</v>
+      </c>
       <c r="I57" t="n">
-        <v>9.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
@@ -2622,13 +2622,13 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>9.75</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2659,15 +2659,13 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>117</v>
-      </c>
-      <c r="I59" t="n">
-        <v>117</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2698,12 +2696,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>117</v>
+      </c>
       <c r="I60" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Kahenda</t>
+          <t>Kagorogoro_B</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2735,14 +2735,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>156</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -2774,12 +2772,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>156</v>
+      </c>
       <c r="I62" t="n">
-        <v>32.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63">
@@ -2811,13 +2811,13 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>33.25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2848,15 +2848,13 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>156</v>
-      </c>
-      <c r="I64" t="n">
-        <v>156</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2887,12 +2885,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>156</v>
+      </c>
       <c r="I65" t="n">
-        <v>28.75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Kahenda</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2924,14 +2924,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>177</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>177</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="67">
@@ -2963,12 +2961,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>177</v>
+      </c>
       <c r="I67" t="n">
-        <v>13.25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68">
@@ -3000,13 +3000,13 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3037,15 +3037,13 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>177</v>
-      </c>
-      <c r="I69" t="n">
-        <v>177</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3076,12 +3074,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>177</v>
+      </c>
       <c r="I70" t="n">
-        <v>53</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3113,14 +3113,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>120</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>123</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
@@ -3152,12 +3150,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>120</v>
+      </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
@@ -3189,13 +3189,13 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>11</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3226,15 +3226,13 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>120</v>
-      </c>
-      <c r="I74" t="n">
-        <v>123</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3265,12 +3263,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>120</v>
+      </c>
       <c r="I75" t="n">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3302,14 +3302,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>192</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
@@ -3341,12 +3339,14 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>192</v>
+      </c>
       <c r="I77" t="n">
-        <v>17.75</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78">
@@ -3378,13 +3378,13 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>16</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3415,15 +3415,13 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>192</v>
-      </c>
-      <c r="I79" t="n">
-        <v>189</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3454,12 +3452,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>192</v>
+      </c>
       <c r="I80" t="n">
-        <v>60</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3491,14 +3491,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>153</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>153</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82">
@@ -3530,12 +3528,14 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>153</v>
+      </c>
       <c r="I82" t="n">
-        <v>11.75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83">
@@ -3567,13 +3567,13 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>13</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3604,15 +3604,13 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>153</v>
-      </c>
-      <c r="I84" t="n">
-        <v>153</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3643,12 +3641,14 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>153</v>
+      </c>
       <c r="I85" t="n">
-        <v>47</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3680,14 +3680,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>189</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>189</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87">
@@ -3719,12 +3717,14 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>189</v>
+      </c>
       <c r="I87" t="n">
-        <v>15.75</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -3756,13 +3756,13 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>16</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>15.75</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3793,15 +3793,13 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>189</v>
-      </c>
-      <c r="I89" t="n">
-        <v>189</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3832,12 +3830,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>189</v>
+      </c>
       <c r="I90" t="n">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nyakacwamba</t>
+          <t>Nganiko</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Kapapari</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3869,14 +3869,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>372</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>372</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92">
@@ -3908,12 +3906,14 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>372</v>
+      </c>
       <c r="I92" t="n">
-        <v>23.25</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93">
@@ -3945,13 +3945,13 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>23</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3982,15 +3982,13 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>279</v>
-      </c>
-      <c r="I94" t="n">
-        <v>279</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4021,12 +4019,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>279</v>
+      </c>
       <c r="I95" t="n">
-        <v>93</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Karere_Nyakacwamba</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4058,14 +4058,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>408</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>408</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97">
@@ -4097,12 +4095,14 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>408</v>
+      </c>
       <c r="I97" t="n">
-        <v>25.5</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98">
@@ -4134,13 +4134,13 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>26</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4171,15 +4171,13 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>306</v>
-      </c>
-      <c r="I99" t="n">
-        <v>306</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4210,12 +4208,14 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>306</v>
+      </c>
       <c r="I100" t="n">
-        <v>102</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4247,14 +4247,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>336</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>336</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
@@ -4286,12 +4284,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>336</v>
+      </c>
       <c r="I102" t="n">
-        <v>21</v>
+        <v>336</v>
       </c>
     </row>
     <row r="103">
@@ -4323,13 +4323,13 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
         <v>21</v>
       </c>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4360,15 +4360,13 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>252</v>
-      </c>
-      <c r="I104" t="n">
-        <v>252</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4399,12 +4397,14 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>252</v>
+      </c>
       <c r="I105" t="n">
-        <v>84</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4436,14 +4436,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>700</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>700</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
@@ -4475,12 +4473,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>700</v>
+      </c>
       <c r="I107" t="n">
-        <v>43.75</v>
+        <v>700</v>
       </c>
     </row>
     <row r="108">
@@ -4512,13 +4512,13 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>44</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4549,15 +4549,13 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>525</v>
-      </c>
-      <c r="I109" t="n">
-        <v>525</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4588,12 +4586,14 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>525</v>
+      </c>
       <c r="I110" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4625,14 +4625,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>300</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112">
@@ -4664,12 +4662,14 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>300</v>
+      </c>
       <c r="I112" t="n">
-        <v>18.75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113">
@@ -4701,13 +4701,13 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>19</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4738,15 +4738,13 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>225</v>
-      </c>
-      <c r="I114" t="n">
-        <v>225</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4777,12 +4775,14 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>225</v>
+      </c>
       <c r="I115" t="n">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4814,14 +4814,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>436</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>436</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
@@ -4853,12 +4851,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>436</v>
+      </c>
       <c r="I117" t="n">
-        <v>27.25</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118">
@@ -4890,13 +4890,13 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>28</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4927,15 +4927,13 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>327</v>
-      </c>
-      <c r="I119" t="n">
-        <v>327</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4966,12 +4964,14 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>327</v>
+      </c>
       <c r="I120" t="n">
-        <v>109</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5003,14 +5003,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>284</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>284</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
@@ -5042,12 +5040,14 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>284</v>
+      </c>
       <c r="I122" t="n">
-        <v>17.75</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123">
@@ -5079,13 +5079,13 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>18</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>17.75</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5116,15 +5116,13 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>213</v>
-      </c>
-      <c r="I124" t="n">
-        <v>213</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5155,12 +5153,14 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>213</v>
+      </c>
       <c r="I125" t="n">
-        <v>71</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5192,14 +5192,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>484</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>484</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127">
@@ -5231,12 +5229,14 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>484</v>
+      </c>
       <c r="I127" t="n">
-        <v>30.25</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128">
@@ -5268,13 +5268,13 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>31</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>30.25</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5305,15 +5305,13 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>363</v>
-      </c>
-      <c r="I129" t="n">
-        <v>363</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5344,12 +5342,14 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Onions - Local</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>363</v>
+      </c>
       <c r="I130" t="n">
-        <v>121</v>
+        <v>363</v>
       </c>
     </row>
     <row r="131">
@@ -5358,17 +5358,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Kanoni</t>
+          <t>Nyakacwamba</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5381,14 +5381,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>415</v>
-      </c>
+          <t>Onions - Local</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>270</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
@@ -5420,13 +5418,15 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>34</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>415</v>
+      </c>
+      <c r="I132" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5457,13 +5457,13 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Maize</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -5494,15 +5494,13 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>775</v>
-      </c>
-      <c r="I134" t="n">
-        <v>500</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5520,7 +5518,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5533,11 +5531,11 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
     </row>
@@ -5570,13 +5568,15 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>775</v>
+      </c>
+      <c r="I136" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -5607,15 +5607,13 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Beans</t>
+          <t>Irish potatoes</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>505</v>
-      </c>
-      <c r="I137" t="n">
-        <v>475</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5633,7 +5631,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5646,11 +5644,11 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
     </row>
@@ -5683,13 +5681,15 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="I139" t="n">
+        <v>475</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -5720,14 +5720,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>400</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>399</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="141">
@@ -5746,7 +5744,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5763,7 +5761,7 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I141" t="inlineStr"/>
     </row>
@@ -5783,7 +5781,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5815,12 +5813,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Kanoni</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5837,10 +5835,10 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="I143" t="n">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -5854,12 +5852,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Kanoni</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5872,13 +5870,13 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="n">
-        <v>30.4</v>
-      </c>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>32</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5891,12 +5889,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Kasensero</t>
+          <t>Kanoni</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5909,11 +5907,11 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
     </row>
@@ -5946,13 +5944,15 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>415</v>
+      </c>
+      <c r="I146" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5983,14 +5983,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>585</v>
-      </c>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>545</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="148">
@@ -6009,7 +6007,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6022,13 +6020,13 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Irish Potatoes</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="n">
-        <v>43.6</v>
-      </c>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>33</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6046,7 +6044,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6059,11 +6057,11 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Irish potatoes</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
     </row>
@@ -6096,13 +6094,15 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Beans</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>585</v>
+      </c>
+      <c r="I150" t="n">
+        <v>545</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -6133,13 +6133,13 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Beans</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>1005</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I152" t="inlineStr"/>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -6248,10 +6248,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>605</v>
+        <v>1005</v>
       </c>
       <c r="I154" t="n">
-        <v>465</v>
+        <v>805</v>
       </c>
     </row>
     <row r="155">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>37.2</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I156" t="inlineStr"/>
     </row>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -6398,10 +6398,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="I158" t="n">
-        <v>385</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>30.8</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="160">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I160" t="inlineStr"/>
     </row>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="I162" t="n">
-        <v>290</v>
+        <v>385</v>
       </c>
     </row>
     <row r="163">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>23.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="164">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I164" t="inlineStr"/>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1190</v>
+        <v>425</v>
       </c>
       <c r="I166" t="n">
-        <v>1125</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>90</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="168">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I168" t="inlineStr"/>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>640</v>
+        <v>1190</v>
       </c>
       <c r="I170" t="n">
-        <v>620</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="171">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>49.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I172" t="inlineStr"/>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="I174" t="n">
-        <v>320</v>
+        <v>620</v>
       </c>
     </row>
     <row r="175">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>25.6</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="176">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -7074,7 +7074,7 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I176" t="inlineStr"/>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="I178" t="n">
-        <v>435</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>34.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="180">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -7224,7 +7224,7 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I180" t="inlineStr"/>
     </row>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -7298,10 +7298,10 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>725</v>
+        <v>580</v>
       </c>
       <c r="I182" t="n">
-        <v>710</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183">
@@ -7315,12 +7315,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>57.2</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="184">
@@ -7352,12 +7352,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I184" t="inlineStr"/>
     </row>
@@ -7389,12 +7389,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Kyamakanaga</t>
+          <t>Kasensero</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -7448,10 +7448,10 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>340</v>
+        <v>725</v>
       </c>
       <c r="I186" t="n">
-        <v>340</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>27.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="188">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -7524,7 +7524,7 @@
         </is>
       </c>
       <c r="H188" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I188" t="inlineStr"/>
     </row>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -7598,10 +7598,10 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>920</v>
+        <v>340</v>
       </c>
       <c r="I190" t="n">
-        <v>880</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>68.40000000000001</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="192">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I192" t="inlineStr"/>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -7714,6 +7714,156 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Beans</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>920</v>
+      </c>
+      <c r="I194" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Irish Potatoes</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>73.60000000000001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Irish potatoes</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>73</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Kyamakanaga</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="66">
   <si>
     <t>district_name</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +627,7 @@
         <v>468</v>
       </c>
       <c r="I2">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -653,7 +653,7 @@
         <v>62</v>
       </c>
       <c r="I3">
-        <v>28.75</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -708,7 +708,7 @@
         <v>351</v>
       </c>
       <c r="I5">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -734,7 +734,7 @@
         <v>65</v>
       </c>
       <c r="I6">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -899,7 +899,7 @@
         <v>636</v>
       </c>
       <c r="I12">
-        <v>536</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="I13">
-        <v>34</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -980,7 +980,7 @@
         <v>477</v>
       </c>
       <c r="I15">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1006,7 +1006,7 @@
         <v>65</v>
       </c>
       <c r="I16">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1035,7 +1035,7 @@
         <v>388</v>
       </c>
       <c r="I17">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1061,7 +1061,7 @@
         <v>62</v>
       </c>
       <c r="I18">
-        <v>23.75</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1116,7 +1116,7 @@
         <v>291</v>
       </c>
       <c r="I20">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1142,7 +1142,7 @@
         <v>65</v>
       </c>
       <c r="I21">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1171,7 +1171,7 @@
         <v>232</v>
       </c>
       <c r="I22">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1197,7 +1197,7 @@
         <v>62</v>
       </c>
       <c r="I23">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1252,7 +1252,7 @@
         <v>174</v>
       </c>
       <c r="I25">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1278,7 +1278,7 @@
         <v>65</v>
       </c>
       <c r="I26">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1579,7 +1579,7 @@
         <v>198</v>
       </c>
       <c r="I37">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1605,7 +1605,7 @@
         <v>62</v>
       </c>
       <c r="I38">
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1660,7 +1660,7 @@
         <v>198</v>
       </c>
       <c r="I40">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1686,7 +1686,7 @@
         <v>65</v>
       </c>
       <c r="I41">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4270,7 +4270,7 @@
         <v>775</v>
       </c>
       <c r="I136">
-        <v>500</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4293,10 +4293,10 @@
         <v>60</v>
       </c>
       <c r="G137" t="s">
-        <v>63</v>
-      </c>
-      <c r="H137">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I137">
+        <v>61.6</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4319,10 +4319,10 @@
         <v>60</v>
       </c>
       <c r="G138" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4336,7 +4336,7 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E139">
         <v>2025</v>
@@ -4345,13 +4345,10 @@
         <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H139">
-        <v>505</v>
-      </c>
-      <c r="I139">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4365,7 +4362,7 @@
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E140">
         <v>2025</v>
@@ -4374,10 +4371,10 @@
         <v>60</v>
       </c>
       <c r="G140" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I140">
-        <v>36.6</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4400,10 +4397,13 @@
         <v>60</v>
       </c>
       <c r="G141" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H141">
-        <v>40</v>
+        <v>505</v>
+      </c>
+      <c r="I141">
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4426,10 +4426,10 @@
         <v>60</v>
       </c>
       <c r="G142" t="s">
-        <v>64</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I142">
+        <v>36.6</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4443,7 +4443,7 @@
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E143">
         <v>2025</v>
@@ -4452,13 +4452,10 @@
         <v>60</v>
       </c>
       <c r="G143" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H143">
-        <v>400</v>
-      </c>
-      <c r="I143">
-        <v>399</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4472,7 +4469,7 @@
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E144">
         <v>2025</v>
@@ -4481,10 +4478,10 @@
         <v>60</v>
       </c>
       <c r="G144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H144">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4507,10 +4504,13 @@
         <v>60</v>
       </c>
       <c r="G145" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="I145">
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4521,10 +4521,10 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E146">
         <v>2025</v>
@@ -4533,13 +4533,10 @@
         <v>60</v>
       </c>
       <c r="G146" t="s">
-        <v>61</v>
-      </c>
-      <c r="H146">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="I146">
-        <v>380</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4550,10 +4547,10 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E147">
         <v>2025</v>
@@ -4562,10 +4559,10 @@
         <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>62</v>
-      </c>
-      <c r="I147">
-        <v>30.4</v>
+        <v>63</v>
+      </c>
+      <c r="H147">
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4576,10 +4573,10 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E148">
         <v>2025</v>
@@ -4588,10 +4585,10 @@
         <v>60</v>
       </c>
       <c r="G148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H148">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4602,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E149">
         <v>2025</v>
@@ -4614,10 +4611,10 @@
         <v>60</v>
       </c>
       <c r="G149" t="s">
-        <v>64</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4631,7 +4628,7 @@
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E150">
         <v>2025</v>
@@ -4643,10 +4640,10 @@
         <v>61</v>
       </c>
       <c r="H150">
-        <v>585</v>
+        <v>415</v>
       </c>
       <c r="I150">
-        <v>545</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4660,7 +4657,7 @@
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E151">
         <v>2025</v>
@@ -4672,7 +4669,7 @@
         <v>62</v>
       </c>
       <c r="I151">
-        <v>43.6</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4686,7 +4683,7 @@
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E152">
         <v>2025</v>
@@ -4698,7 +4695,7 @@
         <v>63</v>
       </c>
       <c r="H152">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4712,7 +4709,7 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E153">
         <v>2025</v>
@@ -4738,7 +4735,7 @@
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E154">
         <v>2025</v>
@@ -4750,10 +4747,10 @@
         <v>61</v>
       </c>
       <c r="H154">
-        <v>1005</v>
+        <v>585</v>
       </c>
       <c r="I154">
-        <v>805</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4767,7 +4764,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E155">
         <v>2025</v>
@@ -4779,7 +4776,7 @@
         <v>62</v>
       </c>
       <c r="I155">
-        <v>64.40000000000001</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4793,7 +4790,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E156">
         <v>2025</v>
@@ -4805,7 +4802,7 @@
         <v>63</v>
       </c>
       <c r="H156">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4819,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E157">
         <v>2025</v>
@@ -4845,7 +4842,7 @@
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E158">
         <v>2025</v>
@@ -4857,10 +4854,10 @@
         <v>61</v>
       </c>
       <c r="H158">
-        <v>605</v>
+        <v>1005</v>
       </c>
       <c r="I158">
-        <v>465</v>
+        <v>805</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4874,7 +4871,7 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E159">
         <v>2025</v>
@@ -4886,7 +4883,7 @@
         <v>62</v>
       </c>
       <c r="I159">
-        <v>37.2</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -4900,7 +4897,7 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E160">
         <v>2025</v>
@@ -4912,7 +4909,7 @@
         <v>63</v>
       </c>
       <c r="H160">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -4926,7 +4923,7 @@
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E161">
         <v>2025</v>
@@ -4952,7 +4949,7 @@
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E162">
         <v>2025</v>
@@ -4964,10 +4961,10 @@
         <v>61</v>
       </c>
       <c r="H162">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="I162">
-        <v>385</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4981,7 +4978,7 @@
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E163">
         <v>2025</v>
@@ -4993,7 +4990,7 @@
         <v>62</v>
       </c>
       <c r="I163">
-        <v>30.8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5007,7 +5004,7 @@
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E164">
         <v>2025</v>
@@ -5019,7 +5016,7 @@
         <v>63</v>
       </c>
       <c r="H164">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5033,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E165">
         <v>2025</v>
@@ -5059,7 +5056,7 @@
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E166">
         <v>2025</v>
@@ -5071,10 +5068,10 @@
         <v>61</v>
       </c>
       <c r="H166">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="I166">
-        <v>290</v>
+        <v>385</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5088,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E167">
         <v>2025</v>
@@ -5100,7 +5097,7 @@
         <v>62</v>
       </c>
       <c r="I167">
-        <v>23.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5114,7 +5111,7 @@
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E168">
         <v>2025</v>
@@ -5126,7 +5123,7 @@
         <v>63</v>
       </c>
       <c r="H168">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5140,7 +5137,7 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E169">
         <v>2025</v>
@@ -5166,7 +5163,7 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E170">
         <v>2025</v>
@@ -5178,10 +5175,10 @@
         <v>61</v>
       </c>
       <c r="H170">
-        <v>1190</v>
+        <v>425</v>
       </c>
       <c r="I170">
-        <v>1125</v>
+        <v>410</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5195,7 +5192,7 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E171">
         <v>2025</v>
@@ -5207,7 +5204,7 @@
         <v>62</v>
       </c>
       <c r="I171">
-        <v>90</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5221,7 +5218,7 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E172">
         <v>2025</v>
@@ -5233,7 +5230,7 @@
         <v>63</v>
       </c>
       <c r="H172">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5247,7 +5244,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E173">
         <v>2025</v>
@@ -5273,7 +5270,7 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E174">
         <v>2025</v>
@@ -5285,10 +5282,10 @@
         <v>61</v>
       </c>
       <c r="H174">
-        <v>640</v>
+        <v>1190</v>
       </c>
       <c r="I174">
-        <v>620</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5302,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E175">
         <v>2025</v>
@@ -5314,7 +5311,7 @@
         <v>62</v>
       </c>
       <c r="I175">
-        <v>49.6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5328,7 +5325,7 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E176">
         <v>2025</v>
@@ -5340,7 +5337,7 @@
         <v>63</v>
       </c>
       <c r="H176">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5354,7 +5351,7 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E177">
         <v>2025</v>
@@ -5380,7 +5377,7 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E178">
         <v>2025</v>
@@ -5389,13 +5386,10 @@
         <v>60</v>
       </c>
       <c r="G178" t="s">
-        <v>61</v>
-      </c>
-      <c r="H178">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="I178">
-        <v>320</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5409,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E179">
         <v>2025</v>
@@ -5418,10 +5412,13 @@
         <v>60</v>
       </c>
       <c r="G179" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H179">
+        <v>640</v>
       </c>
       <c r="I179">
-        <v>25.6</v>
+        <v>635</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5435,7 +5432,7 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E180">
         <v>2025</v>
@@ -5444,10 +5441,10 @@
         <v>60</v>
       </c>
       <c r="G180" t="s">
-        <v>63</v>
-      </c>
-      <c r="H180">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="I180">
+        <v>50.8</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5461,7 +5458,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E181">
         <v>2025</v>
@@ -5470,10 +5467,10 @@
         <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5487,7 +5484,7 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E182">
         <v>2025</v>
@@ -5496,13 +5493,10 @@
         <v>60</v>
       </c>
       <c r="G182" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H182">
-        <v>580</v>
-      </c>
-      <c r="I182">
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5516,7 +5510,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E183">
         <v>2025</v>
@@ -5525,10 +5519,13 @@
         <v>60</v>
       </c>
       <c r="G183" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H183">
+        <v>350</v>
       </c>
       <c r="I183">
-        <v>34.8</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5542,7 +5539,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E184">
         <v>2025</v>
@@ -5551,10 +5548,10 @@
         <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>63</v>
-      </c>
-      <c r="H184">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="I184">
+        <v>25.6</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5568,7 +5565,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E185">
         <v>2025</v>
@@ -5577,10 +5574,10 @@
         <v>60</v>
       </c>
       <c r="G185" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5591,10 +5588,10 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E186">
         <v>2025</v>
@@ -5603,13 +5600,10 @@
         <v>60</v>
       </c>
       <c r="G186" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H186">
-        <v>725</v>
-      </c>
-      <c r="I186">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5620,10 +5614,10 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E187">
         <v>2025</v>
@@ -5632,10 +5626,13 @@
         <v>60</v>
       </c>
       <c r="G187" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H187">
+        <v>580</v>
       </c>
       <c r="I187">
-        <v>57.6</v>
+        <v>555</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5646,10 +5643,10 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E188">
         <v>2025</v>
@@ -5658,10 +5655,10 @@
         <v>60</v>
       </c>
       <c r="G188" t="s">
-        <v>63</v>
-      </c>
-      <c r="H188">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="I188">
+        <v>44.40000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5672,10 +5669,10 @@
         <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E189">
         <v>2025</v>
@@ -5684,10 +5681,10 @@
         <v>60</v>
       </c>
       <c r="G189" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5698,10 +5695,10 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E190">
         <v>2025</v>
@@ -5710,10 +5707,10 @@
         <v>60</v>
       </c>
       <c r="G190" t="s">
-        <v>65</v>
-      </c>
-      <c r="I190">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5727,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E191">
         <v>2025</v>
@@ -5739,10 +5736,10 @@
         <v>61</v>
       </c>
       <c r="H191">
-        <v>340</v>
+        <v>725</v>
       </c>
       <c r="I191">
-        <v>340</v>
+        <v>720</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5756,7 +5753,7 @@
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E192">
         <v>2025</v>
@@ -5768,7 +5765,7 @@
         <v>62</v>
       </c>
       <c r="I192">
-        <v>27.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5782,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E193">
         <v>2025</v>
@@ -5794,7 +5791,7 @@
         <v>63</v>
       </c>
       <c r="H193">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5808,7 +5805,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E194">
         <v>2025</v>
@@ -5834,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E195">
         <v>2025</v>
@@ -5846,7 +5843,7 @@
         <v>65</v>
       </c>
       <c r="I195">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -5860,7 +5857,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E196">
         <v>2025</v>
@@ -5872,10 +5869,10 @@
         <v>61</v>
       </c>
       <c r="H196">
-        <v>920</v>
+        <v>340</v>
       </c>
       <c r="I196">
-        <v>920</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5889,7 +5886,7 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E197">
         <v>2025</v>
@@ -5901,7 +5898,7 @@
         <v>62</v>
       </c>
       <c r="I197">
-        <v>73.60000000000001</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5915,7 +5912,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E198">
         <v>2025</v>
@@ -5927,7 +5924,7 @@
         <v>63</v>
       </c>
       <c r="H198">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5941,7 +5938,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E199">
         <v>2025</v>
@@ -5967,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E200">
         <v>2025</v>
@@ -5979,6 +5976,139 @@
         <v>65</v>
       </c>
       <c r="I200">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201">
+        <v>2025</v>
+      </c>
+      <c r="F201" t="s">
+        <v>60</v>
+      </c>
+      <c r="G201" t="s">
+        <v>61</v>
+      </c>
+      <c r="H201">
+        <v>920</v>
+      </c>
+      <c r="I201">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>59</v>
+      </c>
+      <c r="E202">
+        <v>2025</v>
+      </c>
+      <c r="F202" t="s">
+        <v>60</v>
+      </c>
+      <c r="G202" t="s">
+        <v>62</v>
+      </c>
+      <c r="I202">
+        <v>73.60000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>59</v>
+      </c>
+      <c r="E203">
+        <v>2025</v>
+      </c>
+      <c r="F203" t="s">
+        <v>60</v>
+      </c>
+      <c r="G203" t="s">
+        <v>63</v>
+      </c>
+      <c r="H203">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204">
+        <v>2025</v>
+      </c>
+      <c r="F204" t="s">
+        <v>60</v>
+      </c>
+      <c r="G204" t="s">
+        <v>64</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205">
+        <v>2025</v>
+      </c>
+      <c r="F205" t="s">
+        <v>60</v>
+      </c>
+      <c r="G205" t="s">
+        <v>65</v>
+      </c>
+      <c r="I205">
         <v>184</v>
       </c>
     </row>

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="66">
   <si>
     <t>district_name</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4189,7 +4189,7 @@
         <v>62</v>
       </c>
       <c r="I133">
-        <v>28</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4255,7 +4255,7 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E136">
         <v>2025</v>
@@ -4264,13 +4264,10 @@
         <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>61</v>
-      </c>
-      <c r="H136">
-        <v>775</v>
+        <v>65</v>
       </c>
       <c r="I136">
-        <v>587</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4293,10 +4290,13 @@
         <v>60</v>
       </c>
       <c r="G137" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H137">
+        <v>775</v>
       </c>
       <c r="I137">
-        <v>61.6</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4319,10 +4319,10 @@
         <v>60</v>
       </c>
       <c r="G138" t="s">
-        <v>63</v>
-      </c>
-      <c r="H138">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I138">
+        <v>61.6</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4345,10 +4345,10 @@
         <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4371,10 +4371,10 @@
         <v>60</v>
       </c>
       <c r="G140" t="s">
-        <v>65</v>
-      </c>
-      <c r="I140">
-        <v>154</v>
+        <v>64</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4388,7 +4388,7 @@
         <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E141">
         <v>2025</v>
@@ -4397,13 +4397,10 @@
         <v>60</v>
       </c>
       <c r="G141" t="s">
-        <v>61</v>
-      </c>
-      <c r="H141">
-        <v>505</v>
+        <v>65</v>
       </c>
       <c r="I141">
-        <v>480</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4426,10 +4423,13 @@
         <v>60</v>
       </c>
       <c r="G142" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H142">
+        <v>505</v>
       </c>
       <c r="I142">
-        <v>36.6</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4452,10 +4452,10 @@
         <v>60</v>
       </c>
       <c r="G143" t="s">
-        <v>63</v>
-      </c>
-      <c r="H143">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="I143">
+        <v>36.6</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4478,10 +4478,10 @@
         <v>60</v>
       </c>
       <c r="G144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4495,7 +4495,7 @@
         <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E145">
         <v>2025</v>
@@ -4504,13 +4504,10 @@
         <v>60</v>
       </c>
       <c r="G145" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H145">
-        <v>400</v>
-      </c>
-      <c r="I145">
-        <v>399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4533,10 +4530,13 @@
         <v>60</v>
       </c>
       <c r="G146" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H146">
+        <v>400</v>
       </c>
       <c r="I146">
-        <v>32</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4559,9 +4559,9 @@
         <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>63</v>
-      </c>
-      <c r="H147">
+        <v>62</v>
+      </c>
+      <c r="I147">
         <v>32</v>
       </c>
     </row>
@@ -4585,10 +4585,10 @@
         <v>60</v>
       </c>
       <c r="G148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4611,10 +4611,10 @@
         <v>60</v>
       </c>
       <c r="G149" t="s">
-        <v>65</v>
-      </c>
-      <c r="I149">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4625,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E150">
         <v>2025</v>
@@ -4637,13 +4637,10 @@
         <v>60</v>
       </c>
       <c r="G150" t="s">
-        <v>61</v>
-      </c>
-      <c r="H150">
-        <v>415</v>
+        <v>65</v>
       </c>
       <c r="I150">
-        <v>380</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4666,10 +4663,13 @@
         <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H151">
+        <v>415</v>
       </c>
       <c r="I151">
-        <v>30.4</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4692,10 +4692,10 @@
         <v>60</v>
       </c>
       <c r="G152" t="s">
-        <v>63</v>
-      </c>
-      <c r="H152">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="I152">
+        <v>30.4</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4718,10 +4718,10 @@
         <v>60</v>
       </c>
       <c r="G153" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4735,7 +4735,7 @@
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E154">
         <v>2025</v>
@@ -4744,13 +4744,10 @@
         <v>60</v>
       </c>
       <c r="G154" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H154">
-        <v>585</v>
-      </c>
-      <c r="I154">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4773,10 +4770,13 @@
         <v>60</v>
       </c>
       <c r="G155" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H155">
+        <v>585</v>
       </c>
       <c r="I155">
-        <v>45.2</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4799,10 +4799,10 @@
         <v>60</v>
       </c>
       <c r="G156" t="s">
-        <v>63</v>
-      </c>
-      <c r="H156">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="I156">
+        <v>45.2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4825,10 +4825,10 @@
         <v>60</v>
       </c>
       <c r="G157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4842,7 +4842,7 @@
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E158">
         <v>2025</v>
@@ -4851,13 +4851,10 @@
         <v>60</v>
       </c>
       <c r="G158" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H158">
-        <v>1005</v>
-      </c>
-      <c r="I158">
-        <v>805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4880,10 +4877,13 @@
         <v>60</v>
       </c>
       <c r="G159" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H159">
+        <v>1005</v>
       </c>
       <c r="I159">
-        <v>64.40000000000001</v>
+        <v>805</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -4906,10 +4906,10 @@
         <v>60</v>
       </c>
       <c r="G160" t="s">
-        <v>63</v>
-      </c>
-      <c r="H160">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="I160">
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -4932,10 +4932,10 @@
         <v>60</v>
       </c>
       <c r="G161" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -4949,7 +4949,7 @@
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E162">
         <v>2025</v>
@@ -4958,13 +4958,10 @@
         <v>60</v>
       </c>
       <c r="G162" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H162">
-        <v>605</v>
-      </c>
-      <c r="I162">
-        <v>575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4987,10 +4984,13 @@
         <v>60</v>
       </c>
       <c r="G163" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H163">
+        <v>605</v>
       </c>
       <c r="I163">
-        <v>46</v>
+        <v>575</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5013,10 +5013,10 @@
         <v>60</v>
       </c>
       <c r="G164" t="s">
-        <v>63</v>
-      </c>
-      <c r="H164">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="I164">
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5039,10 +5039,10 @@
         <v>60</v>
       </c>
       <c r="G165" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5056,7 +5056,7 @@
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E166">
         <v>2025</v>
@@ -5065,13 +5065,10 @@
         <v>60</v>
       </c>
       <c r="G166" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H166">
-        <v>560</v>
-      </c>
-      <c r="I166">
-        <v>385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5094,10 +5091,13 @@
         <v>60</v>
       </c>
       <c r="G167" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H167">
+        <v>560</v>
       </c>
       <c r="I167">
-        <v>30.8</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5120,10 +5120,10 @@
         <v>60</v>
       </c>
       <c r="G168" t="s">
-        <v>63</v>
-      </c>
-      <c r="H168">
-        <v>45</v>
+        <v>62</v>
+      </c>
+      <c r="I168">
+        <v>40.40000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5146,10 +5146,10 @@
         <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5163,7 +5163,7 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E170">
         <v>2025</v>
@@ -5172,13 +5172,10 @@
         <v>60</v>
       </c>
       <c r="G170" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H170">
-        <v>425</v>
-      </c>
-      <c r="I170">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5201,10 +5198,13 @@
         <v>60</v>
       </c>
       <c r="G171" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H171">
+        <v>425</v>
       </c>
       <c r="I171">
-        <v>32.8</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5227,10 +5227,10 @@
         <v>60</v>
       </c>
       <c r="G172" t="s">
-        <v>63</v>
-      </c>
-      <c r="H172">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="I172">
+        <v>32.8</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5253,10 +5253,10 @@
         <v>60</v>
       </c>
       <c r="G173" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5270,7 +5270,7 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E174">
         <v>2025</v>
@@ -5279,13 +5279,10 @@
         <v>60</v>
       </c>
       <c r="G174" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H174">
-        <v>1190</v>
-      </c>
-      <c r="I174">
-        <v>1175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5308,10 +5305,13 @@
         <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H175">
+        <v>1190</v>
       </c>
       <c r="I175">
-        <v>94</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5334,10 +5334,10 @@
         <v>60</v>
       </c>
       <c r="G176" t="s">
-        <v>63</v>
-      </c>
-      <c r="H176">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="I176">
+        <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5360,10 +5360,10 @@
         <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5386,10 +5386,10 @@
         <v>60</v>
       </c>
       <c r="G178" t="s">
-        <v>65</v>
-      </c>
-      <c r="I178">
-        <v>170</v>
+        <v>64</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5403,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E179">
         <v>2025</v>
@@ -5412,13 +5412,10 @@
         <v>60</v>
       </c>
       <c r="G179" t="s">
-        <v>61</v>
-      </c>
-      <c r="H179">
-        <v>640</v>
+        <v>65</v>
       </c>
       <c r="I179">
-        <v>635</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5441,10 +5438,13 @@
         <v>60</v>
       </c>
       <c r="G180" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H180">
+        <v>640</v>
       </c>
       <c r="I180">
-        <v>50.8</v>
+        <v>635</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5467,10 +5467,10 @@
         <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>63</v>
-      </c>
-      <c r="H181">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="I181">
+        <v>50.8</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5493,10 +5493,10 @@
         <v>60</v>
       </c>
       <c r="G182" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5510,7 +5510,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E183">
         <v>2025</v>
@@ -5519,13 +5519,10 @@
         <v>60</v>
       </c>
       <c r="G183" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H183">
-        <v>350</v>
-      </c>
-      <c r="I183">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5548,10 +5545,13 @@
         <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H184">
+        <v>350</v>
       </c>
       <c r="I184">
-        <v>25.6</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5574,10 +5574,10 @@
         <v>60</v>
       </c>
       <c r="G185" t="s">
-        <v>63</v>
-      </c>
-      <c r="H185">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="I185">
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5600,10 +5600,10 @@
         <v>60</v>
       </c>
       <c r="G186" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5617,7 +5617,7 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E187">
         <v>2025</v>
@@ -5626,13 +5626,10 @@
         <v>60</v>
       </c>
       <c r="G187" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H187">
-        <v>580</v>
-      </c>
-      <c r="I187">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5655,10 +5652,13 @@
         <v>60</v>
       </c>
       <c r="G188" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H188">
+        <v>580</v>
       </c>
       <c r="I188">
-        <v>44.40000000000001</v>
+        <v>555</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5681,10 +5681,10 @@
         <v>60</v>
       </c>
       <c r="G189" t="s">
-        <v>63</v>
-      </c>
-      <c r="H189">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="I189">
+        <v>44.40000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5707,10 +5707,10 @@
         <v>60</v>
       </c>
       <c r="G190" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5721,10 +5721,10 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E191">
         <v>2025</v>
@@ -5733,13 +5733,10 @@
         <v>60</v>
       </c>
       <c r="G191" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H191">
-        <v>725</v>
-      </c>
-      <c r="I191">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5762,10 +5759,13 @@
         <v>60</v>
       </c>
       <c r="G192" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H192">
+        <v>725</v>
       </c>
       <c r="I192">
-        <v>57.6</v>
+        <v>720</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5788,10 +5788,10 @@
         <v>60</v>
       </c>
       <c r="G193" t="s">
-        <v>63</v>
-      </c>
-      <c r="H193">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="I193">
+        <v>57.6</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5814,10 +5814,10 @@
         <v>60</v>
       </c>
       <c r="G194" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -5840,10 +5840,10 @@
         <v>60</v>
       </c>
       <c r="G195" t="s">
-        <v>65</v>
-      </c>
-      <c r="I195">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -5857,7 +5857,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E196">
         <v>2025</v>
@@ -5866,13 +5866,10 @@
         <v>60</v>
       </c>
       <c r="G196" t="s">
-        <v>61</v>
-      </c>
-      <c r="H196">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="I196">
-        <v>340</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5895,10 +5892,13 @@
         <v>60</v>
       </c>
       <c r="G197" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H197">
+        <v>340</v>
       </c>
       <c r="I197">
-        <v>27.2</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5921,10 +5921,10 @@
         <v>60</v>
       </c>
       <c r="G198" t="s">
-        <v>63</v>
-      </c>
-      <c r="H198">
-        <v>27</v>
+        <v>62</v>
+      </c>
+      <c r="I198">
+        <v>27.2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5947,10 +5947,10 @@
         <v>60</v>
       </c>
       <c r="G199" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -5973,10 +5973,10 @@
         <v>60</v>
       </c>
       <c r="G200" t="s">
-        <v>65</v>
-      </c>
-      <c r="I200">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -5990,7 +5990,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E201">
         <v>2025</v>
@@ -5999,13 +5999,10 @@
         <v>60</v>
       </c>
       <c r="G201" t="s">
-        <v>61</v>
-      </c>
-      <c r="H201">
-        <v>920</v>
+        <v>65</v>
       </c>
       <c r="I201">
-        <v>920</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6028,10 +6025,13 @@
         <v>60</v>
       </c>
       <c r="G202" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H202">
+        <v>920</v>
       </c>
       <c r="I202">
-        <v>73.60000000000001</v>
+        <v>920</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6054,10 +6054,10 @@
         <v>60</v>
       </c>
       <c r="G203" t="s">
-        <v>63</v>
-      </c>
-      <c r="H203">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="I203">
+        <v>73.60000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6080,10 +6080,10 @@
         <v>60</v>
       </c>
       <c r="G204" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6106,9 +6106,35 @@
         <v>60</v>
       </c>
       <c r="G205" t="s">
+        <v>64</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>59</v>
+      </c>
+      <c r="E206">
+        <v>2025</v>
+      </c>
+      <c r="F206" t="s">
+        <v>60</v>
+      </c>
+      <c r="G206" t="s">
         <v>65</v>
       </c>
-      <c r="I205">
+      <c r="I206">
         <v>184</v>
       </c>
     </row>

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="66">
   <si>
     <t>district_name</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="I13">
-        <v>35.25</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1006,7 +1006,7 @@
         <v>65</v>
       </c>
       <c r="I16">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4163,7 +4163,7 @@
         <v>415</v>
       </c>
       <c r="I132">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4189,7 +4189,7 @@
         <v>62</v>
       </c>
       <c r="I133">
-        <v>31.2</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4267,7 +4267,7 @@
         <v>65</v>
       </c>
       <c r="I136">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4296,7 +4296,7 @@
         <v>775</v>
       </c>
       <c r="I137">
-        <v>647</v>
+        <v>697</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4429,7 +4429,7 @@
         <v>505</v>
       </c>
       <c r="I142">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4521,7 +4521,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E146">
         <v>2025</v>
@@ -4530,13 +4530,10 @@
         <v>60</v>
       </c>
       <c r="G146" t="s">
-        <v>61</v>
-      </c>
-      <c r="H146">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="I146">
-        <v>399</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4559,10 +4556,13 @@
         <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H147">
+        <v>400</v>
       </c>
       <c r="I147">
-        <v>32</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4585,9 +4585,9 @@
         <v>60</v>
       </c>
       <c r="G148" t="s">
-        <v>63</v>
-      </c>
-      <c r="H148">
+        <v>62</v>
+      </c>
+      <c r="I148">
         <v>32</v>
       </c>
     </row>
@@ -4611,10 +4611,10 @@
         <v>60</v>
       </c>
       <c r="G149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4637,10 +4637,10 @@
         <v>60</v>
       </c>
       <c r="G150" t="s">
-        <v>65</v>
-      </c>
-      <c r="I150">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4651,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E151">
         <v>2025</v>
@@ -4663,13 +4663,10 @@
         <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>61</v>
-      </c>
-      <c r="H151">
-        <v>415</v>
+        <v>65</v>
       </c>
       <c r="I151">
-        <v>380</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4692,10 +4689,13 @@
         <v>60</v>
       </c>
       <c r="G152" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H152">
+        <v>415</v>
       </c>
       <c r="I152">
-        <v>30.4</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4718,10 +4718,10 @@
         <v>60</v>
       </c>
       <c r="G153" t="s">
-        <v>63</v>
-      </c>
-      <c r="H153">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="I153">
+        <v>32.4</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4744,10 +4744,10 @@
         <v>60</v>
       </c>
       <c r="G154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4761,7 +4761,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E155">
         <v>2025</v>
@@ -4770,13 +4770,10 @@
         <v>60</v>
       </c>
       <c r="G155" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H155">
-        <v>585</v>
-      </c>
-      <c r="I155">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4790,7 +4787,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E156">
         <v>2025</v>
@@ -4799,10 +4796,10 @@
         <v>60</v>
       </c>
       <c r="G156" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I156">
-        <v>45.2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4825,10 +4822,13 @@
         <v>60</v>
       </c>
       <c r="G157" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H157">
-        <v>46</v>
+        <v>585</v>
+      </c>
+      <c r="I157">
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4851,10 +4851,10 @@
         <v>60</v>
       </c>
       <c r="G158" t="s">
-        <v>64</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I158">
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4868,7 +4868,7 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E159">
         <v>2025</v>
@@ -4877,13 +4877,10 @@
         <v>60</v>
       </c>
       <c r="G159" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H159">
-        <v>1005</v>
-      </c>
-      <c r="I159">
-        <v>805</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -4897,7 +4894,7 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E160">
         <v>2025</v>
@@ -4906,10 +4903,10 @@
         <v>60</v>
       </c>
       <c r="G160" t="s">
-        <v>62</v>
-      </c>
-      <c r="I160">
-        <v>64.40000000000001</v>
+        <v>64</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -4923,7 +4920,7 @@
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E161">
         <v>2025</v>
@@ -4932,10 +4929,10 @@
         <v>60</v>
       </c>
       <c r="G161" t="s">
-        <v>63</v>
-      </c>
-      <c r="H161">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="I161">
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -4958,10 +4955,13 @@
         <v>60</v>
       </c>
       <c r="G162" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1005</v>
+      </c>
+      <c r="I162">
+        <v>950</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4975,7 +4975,7 @@
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E163">
         <v>2025</v>
@@ -4984,13 +4984,10 @@
         <v>60</v>
       </c>
       <c r="G163" t="s">
-        <v>61</v>
-      </c>
-      <c r="H163">
-        <v>605</v>
+        <v>62</v>
       </c>
       <c r="I163">
-        <v>575</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5004,7 +5001,7 @@
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E164">
         <v>2025</v>
@@ -5013,10 +5010,10 @@
         <v>60</v>
       </c>
       <c r="G164" t="s">
-        <v>62</v>
-      </c>
-      <c r="I164">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="H164">
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5030,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E165">
         <v>2025</v>
@@ -5039,10 +5036,10 @@
         <v>60</v>
       </c>
       <c r="G165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H165">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5056,7 +5053,7 @@
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E166">
         <v>2025</v>
@@ -5065,10 +5062,10 @@
         <v>60</v>
       </c>
       <c r="G166" t="s">
-        <v>64</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I166">
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5082,7 +5079,7 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E167">
         <v>2025</v>
@@ -5094,10 +5091,10 @@
         <v>61</v>
       </c>
       <c r="H167">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="I167">
-        <v>505</v>
+        <v>585</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5111,7 +5108,7 @@
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E168">
         <v>2025</v>
@@ -5123,7 +5120,7 @@
         <v>62</v>
       </c>
       <c r="I168">
-        <v>40.40000000000001</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5137,7 +5134,7 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E169">
         <v>2025</v>
@@ -5149,7 +5146,7 @@
         <v>63</v>
       </c>
       <c r="H169">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5163,7 +5160,7 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E170">
         <v>2025</v>
@@ -5189,7 +5186,7 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E171">
         <v>2025</v>
@@ -5198,13 +5195,10 @@
         <v>60</v>
       </c>
       <c r="G171" t="s">
-        <v>61</v>
-      </c>
-      <c r="H171">
-        <v>425</v>
+        <v>65</v>
       </c>
       <c r="I171">
-        <v>410</v>
+        <v>111</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5218,7 +5212,7 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E172">
         <v>2025</v>
@@ -5227,10 +5221,13 @@
         <v>60</v>
       </c>
       <c r="G172" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H172">
+        <v>560</v>
       </c>
       <c r="I172">
-        <v>32.8</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5244,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E173">
         <v>2025</v>
@@ -5253,10 +5250,10 @@
         <v>60</v>
       </c>
       <c r="G173" t="s">
-        <v>63</v>
-      </c>
-      <c r="H173">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="I173">
+        <v>40.40000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5270,7 +5267,7 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E174">
         <v>2025</v>
@@ -5279,10 +5276,10 @@
         <v>60</v>
       </c>
       <c r="G174" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5296,7 +5293,7 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E175">
         <v>2025</v>
@@ -5305,13 +5302,10 @@
         <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H175">
-        <v>1190</v>
-      </c>
-      <c r="I175">
-        <v>1175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5325,7 +5319,7 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E176">
         <v>2025</v>
@@ -5334,7 +5328,7 @@
         <v>60</v>
       </c>
       <c r="G176" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I176">
         <v>94</v>
@@ -5351,7 +5345,7 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E177">
         <v>2025</v>
@@ -5360,10 +5354,13 @@
         <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H177">
-        <v>95</v>
+        <v>425</v>
+      </c>
+      <c r="I177">
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5377,7 +5374,7 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E178">
         <v>2025</v>
@@ -5386,10 +5383,10 @@
         <v>60</v>
       </c>
       <c r="G178" t="s">
-        <v>64</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I178">
+        <v>33.6</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5403,7 +5400,7 @@
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E179">
         <v>2025</v>
@@ -5412,10 +5409,10 @@
         <v>60</v>
       </c>
       <c r="G179" t="s">
-        <v>65</v>
-      </c>
-      <c r="I179">
-        <v>170</v>
+        <v>63</v>
+      </c>
+      <c r="H179">
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5429,7 +5426,7 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E180">
         <v>2025</v>
@@ -5438,13 +5435,10 @@
         <v>60</v>
       </c>
       <c r="G180" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H180">
-        <v>640</v>
-      </c>
-      <c r="I180">
-        <v>635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5458,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E181">
         <v>2025</v>
@@ -5467,10 +5461,10 @@
         <v>60</v>
       </c>
       <c r="G181" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I181">
-        <v>50.8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5484,7 +5478,7 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E182">
         <v>2025</v>
@@ -5493,10 +5487,13 @@
         <v>60</v>
       </c>
       <c r="G182" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H182">
-        <v>51</v>
+        <v>1190</v>
+      </c>
+      <c r="I182">
+        <v>1180</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5510,7 +5507,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E183">
         <v>2025</v>
@@ -5519,10 +5516,10 @@
         <v>60</v>
       </c>
       <c r="G183" t="s">
-        <v>64</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I183">
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5536,7 +5533,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E184">
         <v>2025</v>
@@ -5545,13 +5542,10 @@
         <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H184">
-        <v>350</v>
-      </c>
-      <c r="I184">
-        <v>325</v>
+        <v>95</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5565,7 +5559,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E185">
         <v>2025</v>
@@ -5574,10 +5568,10 @@
         <v>60</v>
       </c>
       <c r="G185" t="s">
-        <v>62</v>
-      </c>
-      <c r="I185">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5591,7 +5585,7 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E186">
         <v>2025</v>
@@ -5600,10 +5594,10 @@
         <v>60</v>
       </c>
       <c r="G186" t="s">
-        <v>63</v>
-      </c>
-      <c r="H186">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="I186">
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5617,7 +5611,7 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E187">
         <v>2025</v>
@@ -5626,10 +5620,13 @@
         <v>60</v>
       </c>
       <c r="G187" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="I187">
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5643,7 +5640,7 @@
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E188">
         <v>2025</v>
@@ -5652,13 +5649,10 @@
         <v>60</v>
       </c>
       <c r="G188" t="s">
-        <v>61</v>
-      </c>
-      <c r="H188">
-        <v>580</v>
+        <v>62</v>
       </c>
       <c r="I188">
-        <v>555</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5672,7 +5666,7 @@
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E189">
         <v>2025</v>
@@ -5681,10 +5675,10 @@
         <v>60</v>
       </c>
       <c r="G189" t="s">
-        <v>62</v>
-      </c>
-      <c r="I189">
-        <v>44.40000000000001</v>
+        <v>63</v>
+      </c>
+      <c r="H189">
+        <v>51</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5698,7 +5692,7 @@
         <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E190">
         <v>2025</v>
@@ -5707,10 +5701,10 @@
         <v>60</v>
       </c>
       <c r="G190" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H190">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5724,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E191">
         <v>2025</v>
@@ -5733,10 +5727,10 @@
         <v>60</v>
       </c>
       <c r="G191" t="s">
-        <v>64</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I191">
+        <v>125</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5747,10 +5741,10 @@
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E192">
         <v>2025</v>
@@ -5762,10 +5756,10 @@
         <v>61</v>
       </c>
       <c r="H192">
-        <v>725</v>
+        <v>350</v>
       </c>
       <c r="I192">
-        <v>720</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5776,10 +5770,10 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E193">
         <v>2025</v>
@@ -5791,7 +5785,7 @@
         <v>62</v>
       </c>
       <c r="I193">
-        <v>57.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5802,10 +5796,10 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E194">
         <v>2025</v>
@@ -5817,7 +5811,7 @@
         <v>63</v>
       </c>
       <c r="H194">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -5828,10 +5822,10 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E195">
         <v>2025</v>
@@ -5854,10 +5848,10 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E196">
         <v>2025</v>
@@ -5869,7 +5863,7 @@
         <v>65</v>
       </c>
       <c r="I196">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5880,10 +5874,10 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E197">
         <v>2025</v>
@@ -5895,10 +5889,10 @@
         <v>61</v>
       </c>
       <c r="H197">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="I197">
-        <v>340</v>
+        <v>555</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5909,10 +5903,10 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E198">
         <v>2025</v>
@@ -5924,7 +5918,7 @@
         <v>62</v>
       </c>
       <c r="I198">
-        <v>27.2</v>
+        <v>44.40000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5935,10 +5929,10 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E199">
         <v>2025</v>
@@ -5950,7 +5944,7 @@
         <v>63</v>
       </c>
       <c r="H199">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -5961,10 +5955,10 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E200">
         <v>2025</v>
@@ -5987,10 +5981,10 @@
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E201">
         <v>2025</v>
@@ -6002,7 +5996,7 @@
         <v>65</v>
       </c>
       <c r="I201">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6016,7 +6010,7 @@
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E202">
         <v>2025</v>
@@ -6028,10 +6022,10 @@
         <v>61</v>
       </c>
       <c r="H202">
-        <v>920</v>
+        <v>725</v>
       </c>
       <c r="I202">
-        <v>920</v>
+        <v>720</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6045,7 +6039,7 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E203">
         <v>2025</v>
@@ -6057,7 +6051,7 @@
         <v>62</v>
       </c>
       <c r="I203">
-        <v>73.60000000000001</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6071,7 +6065,7 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E204">
         <v>2025</v>
@@ -6083,7 +6077,7 @@
         <v>63</v>
       </c>
       <c r="H204">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6097,7 +6091,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E205">
         <v>2025</v>
@@ -6123,7 +6117,7 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E206">
         <v>2025</v>
@@ -6135,6 +6129,272 @@
         <v>65</v>
       </c>
       <c r="I206">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>58</v>
+      </c>
+      <c r="E207">
+        <v>2025</v>
+      </c>
+      <c r="F207" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" t="s">
+        <v>61</v>
+      </c>
+      <c r="H207">
+        <v>340</v>
+      </c>
+      <c r="I207">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>58</v>
+      </c>
+      <c r="E208">
+        <v>2025</v>
+      </c>
+      <c r="F208" t="s">
+        <v>60</v>
+      </c>
+      <c r="G208" t="s">
+        <v>62</v>
+      </c>
+      <c r="I208">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>58</v>
+      </c>
+      <c r="E209">
+        <v>2025</v>
+      </c>
+      <c r="F209" t="s">
+        <v>60</v>
+      </c>
+      <c r="G209" t="s">
+        <v>63</v>
+      </c>
+      <c r="H209">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>58</v>
+      </c>
+      <c r="E210">
+        <v>2025</v>
+      </c>
+      <c r="F210" t="s">
+        <v>60</v>
+      </c>
+      <c r="G210" t="s">
+        <v>64</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>58</v>
+      </c>
+      <c r="E211">
+        <v>2025</v>
+      </c>
+      <c r="F211" t="s">
+        <v>60</v>
+      </c>
+      <c r="G211" t="s">
+        <v>65</v>
+      </c>
+      <c r="I211">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>59</v>
+      </c>
+      <c r="E212">
+        <v>2025</v>
+      </c>
+      <c r="F212" t="s">
+        <v>60</v>
+      </c>
+      <c r="G212" t="s">
+        <v>61</v>
+      </c>
+      <c r="H212">
+        <v>920</v>
+      </c>
+      <c r="I212">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>59</v>
+      </c>
+      <c r="E213">
+        <v>2025</v>
+      </c>
+      <c r="F213" t="s">
+        <v>60</v>
+      </c>
+      <c r="G213" t="s">
+        <v>62</v>
+      </c>
+      <c r="I213">
+        <v>73.60000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" t="s">
+        <v>59</v>
+      </c>
+      <c r="E214">
+        <v>2025</v>
+      </c>
+      <c r="F214" t="s">
+        <v>60</v>
+      </c>
+      <c r="G214" t="s">
+        <v>63</v>
+      </c>
+      <c r="H214">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>59</v>
+      </c>
+      <c r="E215">
+        <v>2025</v>
+      </c>
+      <c r="F215" t="s">
+        <v>60</v>
+      </c>
+      <c r="G215" t="s">
+        <v>64</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" t="s">
+        <v>59</v>
+      </c>
+      <c r="E216">
+        <v>2025</v>
+      </c>
+      <c r="F216" t="s">
+        <v>60</v>
+      </c>
+      <c r="G216" t="s">
+        <v>65</v>
+      </c>
+      <c r="I216">
         <v>184</v>
       </c>
     </row>

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -2693,7 +2693,7 @@
         <v>62</v>
       </c>
       <c r="I78">
-        <v>18.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4163,7 +4163,7 @@
         <v>415</v>
       </c>
       <c r="I132">
-        <v>355</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4455,7 +4455,7 @@
         <v>62</v>
       </c>
       <c r="I143">
-        <v>36.6</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5360,7 +5360,7 @@
         <v>425</v>
       </c>
       <c r="I177">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5386,7 +5386,7 @@
         <v>62</v>
       </c>
       <c r="I178">
-        <v>33.6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5464,7 +5464,7 @@
         <v>65</v>
       </c>
       <c r="I181">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6025,7 +6025,7 @@
         <v>725</v>
       </c>
       <c r="I202">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6051,7 +6051,7 @@
         <v>62</v>
       </c>
       <c r="I203">
-        <v>57.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6129,7 +6129,7 @@
         <v>65</v>
       </c>
       <c r="I206">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:9">

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -708,7 +708,7 @@
         <v>351</v>
       </c>
       <c r="I5">
-        <v>216</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -844,7 +844,7 @@
         <v>225</v>
       </c>
       <c r="I10">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1035,7 +1035,7 @@
         <v>388</v>
       </c>
       <c r="I17">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2285,7 +2285,7 @@
         <v>62</v>
       </c>
       <c r="I63">
-        <v>33.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4189,7 +4189,7 @@
         <v>62</v>
       </c>
       <c r="I133">
-        <v>36.2</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4296,7 +4296,7 @@
         <v>775</v>
       </c>
       <c r="I137">
-        <v>697</v>
+        <v>770</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4322,7 +4322,7 @@
         <v>62</v>
       </c>
       <c r="I138">
-        <v>61.6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4455,7 +4455,7 @@
         <v>62</v>
       </c>
       <c r="I143">
-        <v>40.2</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4562,7 +4562,7 @@
         <v>400</v>
       </c>
       <c r="I147">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4695,7 +4695,7 @@
         <v>415</v>
       </c>
       <c r="I152">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4721,7 +4721,7 @@
         <v>62</v>
       </c>
       <c r="I153">
-        <v>32.4</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4799,7 +4799,7 @@
         <v>65</v>
       </c>
       <c r="I156">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4961,7 +4961,7 @@
         <v>1005</v>
       </c>
       <c r="I162">
-        <v>950</v>
+        <v>975</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4987,7 +4987,7 @@
         <v>62</v>
       </c>
       <c r="I163">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5065,7 +5065,7 @@
         <v>65</v>
       </c>
       <c r="I166">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5094,7 +5094,7 @@
         <v>605</v>
       </c>
       <c r="I167">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5120,7 +5120,7 @@
         <v>62</v>
       </c>
       <c r="I168">
-        <v>46.8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5198,7 +5198,7 @@
         <v>65</v>
       </c>
       <c r="I171">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5227,7 +5227,7 @@
         <v>560</v>
       </c>
       <c r="I172">
-        <v>505</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5253,7 +5253,7 @@
         <v>62</v>
       </c>
       <c r="I173">
-        <v>40.40000000000001</v>
+        <v>44.40000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5331,7 +5331,7 @@
         <v>65</v>
       </c>
       <c r="I176">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5493,7 +5493,7 @@
         <v>1190</v>
       </c>
       <c r="I182">
-        <v>1180</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5519,7 +5519,7 @@
         <v>62</v>
       </c>
       <c r="I183">
-        <v>94.40000000000001</v>
+        <v>94.80000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5597,7 +5597,7 @@
         <v>65</v>
       </c>
       <c r="I186">
-        <v>170</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5730,7 +5730,7 @@
         <v>65</v>
       </c>
       <c r="I191">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5759,7 +5759,7 @@
         <v>350</v>
       </c>
       <c r="I192">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5785,7 +5785,7 @@
         <v>62</v>
       </c>
       <c r="I193">
-        <v>26</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5863,7 +5863,7 @@
         <v>65</v>
       </c>
       <c r="I196">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5892,7 +5892,7 @@
         <v>580</v>
       </c>
       <c r="I197">
-        <v>555</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5918,7 +5918,7 @@
         <v>62</v>
       </c>
       <c r="I198">
-        <v>44.40000000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5996,7 +5996,7 @@
         <v>65</v>
       </c>
       <c r="I201">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:9">

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -870,7 +870,7 @@
         <v>65</v>
       </c>
       <c r="I11">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2366,7 +2366,7 @@
         <v>65</v>
       </c>
       <c r="I66">
-        <v>31.75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4267,7 +4267,7 @@
         <v>65</v>
       </c>
       <c r="I136">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4296,7 +4296,7 @@
         <v>775</v>
       </c>
       <c r="I137">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4400,7 +4400,7 @@
         <v>65</v>
       </c>
       <c r="I141">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4533,7 +4533,7 @@
         <v>65</v>
       </c>
       <c r="I146">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4828,7 +4828,7 @@
         <v>585</v>
       </c>
       <c r="I157">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4854,7 +4854,7 @@
         <v>62</v>
       </c>
       <c r="I158">
-        <v>46</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4932,7 +4932,7 @@
         <v>65</v>
       </c>
       <c r="I161">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -4961,7 +4961,7 @@
         <v>1005</v>
       </c>
       <c r="I162">
-        <v>975</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4987,7 +4987,7 @@
         <v>62</v>
       </c>
       <c r="I163">
-        <v>78</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5065,7 +5065,7 @@
         <v>65</v>
       </c>
       <c r="I166">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5094,7 +5094,7 @@
         <v>605</v>
       </c>
       <c r="I167">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5120,7 +5120,7 @@
         <v>62</v>
       </c>
       <c r="I168">
-        <v>48</v>
+        <v>48.40000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5198,7 +5198,7 @@
         <v>65</v>
       </c>
       <c r="I171">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5227,7 +5227,7 @@
         <v>560</v>
       </c>
       <c r="I172">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5253,7 +5253,7 @@
         <v>62</v>
       </c>
       <c r="I173">
-        <v>44.40000000000001</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5331,7 +5331,7 @@
         <v>65</v>
       </c>
       <c r="I176">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5493,7 +5493,7 @@
         <v>1190</v>
       </c>
       <c r="I182">
-        <v>1185</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5519,7 +5519,7 @@
         <v>62</v>
       </c>
       <c r="I183">
-        <v>94.80000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5597,7 +5597,7 @@
         <v>65</v>
       </c>
       <c r="I186">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5626,7 +5626,7 @@
         <v>640</v>
       </c>
       <c r="I187">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5652,7 +5652,7 @@
         <v>62</v>
       </c>
       <c r="I188">
-        <v>50.8</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5730,7 +5730,7 @@
         <v>65</v>
       </c>
       <c r="I191">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5759,7 +5759,7 @@
         <v>350</v>
       </c>
       <c r="I192">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5785,7 +5785,7 @@
         <v>62</v>
       </c>
       <c r="I193">
-        <v>27.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5863,7 +5863,7 @@
         <v>65</v>
       </c>
       <c r="I196">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5892,7 +5892,7 @@
         <v>580</v>
       </c>
       <c r="I197">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5918,7 +5918,7 @@
         <v>62</v>
       </c>
       <c r="I198">
-        <v>46</v>
+        <v>46.40000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5996,7 +5996,7 @@
         <v>65</v>
       </c>
       <c r="I201">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:9">

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="65">
   <si>
     <t>district_name</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Irish Potatoes</t>
-  </si>
-  <si>
-    <t>Irish potatoes</t>
   </si>
   <si>
     <t>Maize</t>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,6 +649,9 @@
       <c r="G3" t="s">
         <v>62</v>
       </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
       <c r="I3">
         <v>29.25</v>
       </c>
@@ -679,7 +679,10 @@
         <v>63</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>351</v>
+      </c>
+      <c r="I4">
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -705,10 +708,10 @@
         <v>64</v>
       </c>
       <c r="H5">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="I5">
-        <v>351</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -722,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -731,10 +734,13 @@
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>117</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -757,13 +763,13 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>308</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -786,10 +792,13 @@
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <v>225</v>
       </c>
       <c r="I8">
-        <v>19.25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -812,10 +821,13 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -829,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>2025</v>
@@ -838,13 +850,13 @@
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H10">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="I10">
-        <v>231</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -858,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>2025</v>
@@ -867,10 +879,13 @@
         <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>77</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -893,13 +908,13 @@
         <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12">
-        <v>636</v>
+        <v>477</v>
       </c>
       <c r="I12">
-        <v>568</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -922,10 +937,13 @@
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>159</v>
       </c>
       <c r="I13">
-        <v>35.5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -939,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2025</v>
@@ -948,10 +966,13 @@
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>388</v>
+      </c>
+      <c r="I14">
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -965,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2025</v>
@@ -974,13 +995,13 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15">
-        <v>477</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>426</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -994,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>2025</v>
@@ -1003,10 +1024,13 @@
         <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="H16">
+        <v>291</v>
       </c>
       <c r="I16">
-        <v>142</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1029,13 +1053,13 @@
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H17">
-        <v>388</v>
+        <v>97</v>
       </c>
       <c r="I17">
-        <v>388</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1049,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2025</v>
@@ -1058,10 +1082,13 @@
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>232</v>
       </c>
       <c r="I18">
-        <v>24.25</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1075,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>2025</v>
@@ -1084,10 +1111,13 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>14.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1101,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>2025</v>
@@ -1110,13 +1140,13 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="I20">
-        <v>291</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1130,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2025</v>
@@ -1139,10 +1169,13 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>58</v>
       </c>
       <c r="I21">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1153,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2025</v>
@@ -1168,10 +1201,10 @@
         <v>61</v>
       </c>
       <c r="H22">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="I22">
-        <v>232</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1182,10 +1215,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2025</v>
@@ -1196,8 +1229,11 @@
       <c r="G23" t="s">
         <v>62</v>
       </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
       <c r="I23">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1208,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2025</v>
@@ -1223,7 +1259,10 @@
         <v>63</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>126</v>
+      </c>
+      <c r="I24">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1273,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>2025</v>
@@ -1249,10 +1288,10 @@
         <v>64</v>
       </c>
       <c r="H25">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="I25">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1263,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>2025</v>
@@ -1275,10 +1314,13 @@
         <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <v>165</v>
       </c>
       <c r="I26">
-        <v>58</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1292,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>2025</v>
@@ -1301,13 +1343,13 @@
         <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="I27">
-        <v>126</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1321,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>2025</v>
@@ -1330,10 +1372,13 @@
         <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <v>165</v>
       </c>
       <c r="I28">
-        <v>10.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1347,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>2025</v>
@@ -1356,10 +1401,13 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I29">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1373,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>2025</v>
@@ -1382,13 +1430,13 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H30">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="I30">
-        <v>126</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1402,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2025</v>
@@ -1411,10 +1459,13 @@
         <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H31">
+        <v>17</v>
       </c>
       <c r="I31">
-        <v>42</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1428,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>2025</v>
@@ -1437,13 +1488,13 @@
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I32">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1457,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>2025</v>
@@ -1466,10 +1517,13 @@
         <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>66</v>
       </c>
       <c r="I33">
-        <v>13.75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1483,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>2025</v>
@@ -1492,10 +1546,13 @@
         <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>180</v>
+      </c>
+      <c r="I34">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1509,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>2025</v>
@@ -1518,13 +1575,13 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H35">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>165</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1538,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>2025</v>
@@ -1547,10 +1604,13 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="H36">
+        <v>180</v>
       </c>
       <c r="I36">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1564,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>2025</v>
@@ -1573,13 +1633,13 @@
         <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H37">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="I37">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1593,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>2025</v>
@@ -1602,10 +1662,13 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H38">
+        <v>171</v>
       </c>
       <c r="I38">
-        <v>16.5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1619,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>2025</v>
@@ -1628,10 +1691,13 @@
         <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>14.25</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1645,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>2025</v>
@@ -1654,13 +1720,13 @@
         <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="I40">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1674,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>2025</v>
@@ -1683,10 +1749,13 @@
         <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H41">
+        <v>57</v>
       </c>
       <c r="I41">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1697,10 +1766,10 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E42">
         <v>2025</v>
@@ -1712,10 +1781,10 @@
         <v>61</v>
       </c>
       <c r="H42">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I42">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1726,10 +1795,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>2025</v>
@@ -1740,8 +1809,11 @@
       <c r="G43" t="s">
         <v>62</v>
       </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
       <c r="I43">
-        <v>15</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1752,10 +1824,10 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>2025</v>
@@ -1767,7 +1839,10 @@
         <v>63</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>135</v>
+      </c>
+      <c r="I44">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1778,10 +1853,10 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>2025</v>
@@ -1793,10 +1868,10 @@
         <v>64</v>
       </c>
       <c r="H45">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="I45">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1807,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>2025</v>
@@ -1819,10 +1894,13 @@
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H46">
+        <v>117</v>
       </c>
       <c r="I46">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1833,10 +1911,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>2025</v>
@@ -1845,13 +1923,13 @@
         <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H47">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="I47">
-        <v>171</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1862,10 +1940,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E48">
         <v>2025</v>
@@ -1874,10 +1952,13 @@
         <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H48">
+        <v>117</v>
       </c>
       <c r="I48">
-        <v>14.25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1888,10 +1969,10 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>2025</v>
@@ -1900,10 +1981,13 @@
         <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="I49">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1914,10 +1998,10 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>2025</v>
@@ -1926,13 +2010,13 @@
         <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H50">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I50">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1943,10 +2027,10 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <v>2025</v>
@@ -1955,10 +2039,13 @@
         <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H51">
+        <v>14</v>
       </c>
       <c r="I51">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1972,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>2025</v>
@@ -1981,13 +2068,13 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I52">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2001,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E53">
         <v>2025</v>
@@ -2010,10 +2097,13 @@
         <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
       </c>
       <c r="I53">
-        <v>11.25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2027,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>2025</v>
@@ -2036,10 +2126,13 @@
         <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>177</v>
+      </c>
+      <c r="I54">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2053,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E55">
         <v>2025</v>
@@ -2062,13 +2155,13 @@
         <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H55">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="I55">
-        <v>135</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2082,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>2025</v>
@@ -2091,10 +2184,13 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="H56">
+        <v>177</v>
       </c>
       <c r="I56">
-        <v>45</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2108,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E57">
         <v>2025</v>
@@ -2117,13 +2213,13 @@
         <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H57">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="I57">
-        <v>117</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2137,7 +2233,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>2025</v>
@@ -2146,10 +2242,13 @@
         <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H58">
+        <v>120</v>
       </c>
       <c r="I58">
-        <v>9.75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2163,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E59">
         <v>2025</v>
@@ -2172,9 +2271,12 @@
         <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H59">
+        <v>11</v>
+      </c>
+      <c r="I59">
         <v>10</v>
       </c>
     </row>
@@ -2189,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E60">
         <v>2025</v>
@@ -2198,13 +2300,13 @@
         <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H60">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I60">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2218,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>2025</v>
@@ -2227,10 +2329,13 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H61">
+        <v>40</v>
       </c>
       <c r="I61">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2244,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>2025</v>
@@ -2256,10 +2361,10 @@
         <v>61</v>
       </c>
       <c r="H62">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="I62">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2273,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>2025</v>
@@ -2284,8 +2389,11 @@
       <c r="G63" t="s">
         <v>62</v>
       </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
       <c r="I63">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2299,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>2025</v>
@@ -2311,7 +2419,10 @@
         <v>63</v>
       </c>
       <c r="H64">
-        <v>14</v>
+        <v>192</v>
+      </c>
+      <c r="I64">
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2325,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>2025</v>
@@ -2337,10 +2448,10 @@
         <v>64</v>
       </c>
       <c r="H65">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="I65">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2354,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>2025</v>
@@ -2363,10 +2474,13 @@
         <v>60</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H66">
+        <v>153</v>
       </c>
       <c r="I66">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2380,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E67">
         <v>2025</v>
@@ -2389,13 +2503,13 @@
         <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H67">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="I67">
-        <v>177</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2409,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E68">
         <v>2025</v>
@@ -2418,10 +2532,13 @@
         <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H68">
+        <v>153</v>
       </c>
       <c r="I68">
-        <v>14.75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2435,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E69">
         <v>2025</v>
@@ -2444,10 +2561,13 @@
         <v>60</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="I69">
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2461,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E70">
         <v>2025</v>
@@ -2470,13 +2590,13 @@
         <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H70">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I70">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2490,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>2025</v>
@@ -2499,10 +2619,13 @@
         <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
       </c>
       <c r="I71">
-        <v>59</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2516,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E72">
         <v>2025</v>
@@ -2525,13 +2648,13 @@
         <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H72">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="I72">
-        <v>123</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2545,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E73">
         <v>2025</v>
@@ -2554,10 +2677,13 @@
         <v>60</v>
       </c>
       <c r="G73" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H73">
+        <v>63</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2568,10 +2694,10 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E74">
         <v>2025</v>
@@ -2580,10 +2706,13 @@
         <v>60</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>372</v>
+      </c>
+      <c r="I74">
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2594,10 +2723,10 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E75">
         <v>2025</v>
@@ -2606,13 +2735,13 @@
         <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H75">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I75">
-        <v>123</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2623,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E76">
         <v>2025</v>
@@ -2635,10 +2764,13 @@
         <v>60</v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="H76">
+        <v>279</v>
       </c>
       <c r="I76">
-        <v>40</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2649,10 +2781,10 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E77">
         <v>2025</v>
@@ -2661,13 +2793,13 @@
         <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H77">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="I77">
-        <v>192</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2678,10 +2810,10 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E78">
         <v>2025</v>
@@ -2690,10 +2822,13 @@
         <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H78">
+        <v>408</v>
       </c>
       <c r="I78">
-        <v>16</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2704,10 +2839,10 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E79">
         <v>2025</v>
@@ -2716,10 +2851,13 @@
         <v>60</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="I79">
+        <v>25.5</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2730,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E80">
         <v>2025</v>
@@ -2742,13 +2880,13 @@
         <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H80">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="I80">
-        <v>192</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2759,10 +2897,10 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E81">
         <v>2025</v>
@@ -2771,10 +2909,13 @@
         <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H81">
+        <v>102</v>
       </c>
       <c r="I81">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2785,10 +2926,10 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E82">
         <v>2025</v>
@@ -2800,10 +2941,10 @@
         <v>61</v>
       </c>
       <c r="H82">
-        <v>153</v>
+        <v>336</v>
       </c>
       <c r="I82">
-        <v>153</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2814,10 +2955,10 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E83">
         <v>2025</v>
@@ -2828,8 +2969,11 @@
       <c r="G83" t="s">
         <v>62</v>
       </c>
+      <c r="H83">
+        <v>21</v>
+      </c>
       <c r="I83">
-        <v>12.75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2840,10 +2984,10 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E84">
         <v>2025</v>
@@ -2855,7 +2999,10 @@
         <v>63</v>
       </c>
       <c r="H84">
-        <v>13</v>
+        <v>252</v>
+      </c>
+      <c r="I84">
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2866,10 +3013,10 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E85">
         <v>2025</v>
@@ -2881,10 +3028,10 @@
         <v>64</v>
       </c>
       <c r="H85">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="I85">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2895,10 +3042,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E86">
         <v>2025</v>
@@ -2907,10 +3054,13 @@
         <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H86">
+        <v>700</v>
       </c>
       <c r="I86">
-        <v>51</v>
+        <v>700</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2921,10 +3071,10 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E87">
         <v>2025</v>
@@ -2933,13 +3083,13 @@
         <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H87">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="I87">
-        <v>189</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2950,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>2025</v>
@@ -2962,10 +3112,13 @@
         <v>60</v>
       </c>
       <c r="G88" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H88">
+        <v>525</v>
       </c>
       <c r="I88">
-        <v>15.75</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2976,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E89">
         <v>2025</v>
@@ -2988,10 +3141,13 @@
         <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H89">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="I89">
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3002,10 +3158,10 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E90">
         <v>2025</v>
@@ -3014,13 +3170,13 @@
         <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H90">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="I90">
-        <v>189</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3031,10 +3187,10 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E91">
         <v>2025</v>
@@ -3043,10 +3199,13 @@
         <v>60</v>
       </c>
       <c r="G91" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H91">
+        <v>19</v>
       </c>
       <c r="I91">
-        <v>63</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3060,7 +3219,7 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E92">
         <v>2025</v>
@@ -3069,13 +3228,13 @@
         <v>60</v>
       </c>
       <c r="G92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H92">
-        <v>372</v>
+        <v>225</v>
       </c>
       <c r="I92">
-        <v>372</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3089,7 +3248,7 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E93">
         <v>2025</v>
@@ -3098,10 +3257,13 @@
         <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H93">
+        <v>75</v>
       </c>
       <c r="I93">
-        <v>23.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3115,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E94">
         <v>2025</v>
@@ -3124,10 +3286,13 @@
         <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H94">
-        <v>23</v>
+        <v>436</v>
+      </c>
+      <c r="I94">
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3141,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E95">
         <v>2025</v>
@@ -3150,13 +3315,13 @@
         <v>60</v>
       </c>
       <c r="G95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H95">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I95">
-        <v>279</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3170,7 +3335,7 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E96">
         <v>2025</v>
@@ -3179,10 +3344,13 @@
         <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="H96">
+        <v>327</v>
       </c>
       <c r="I96">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3196,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E97">
         <v>2025</v>
@@ -3205,13 +3373,13 @@
         <v>60</v>
       </c>
       <c r="G97" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H97">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="I97">
-        <v>408</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3225,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E98">
         <v>2025</v>
@@ -3234,10 +3402,13 @@
         <v>60</v>
       </c>
       <c r="G98" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H98">
+        <v>284</v>
       </c>
       <c r="I98">
-        <v>25.5</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3251,7 +3422,7 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E99">
         <v>2025</v>
@@ -3260,10 +3431,13 @@
         <v>60</v>
       </c>
       <c r="G99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H99">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="I99">
+        <v>17.75</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3277,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E100">
         <v>2025</v>
@@ -3286,13 +3460,13 @@
         <v>60</v>
       </c>
       <c r="G100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H100">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="I100">
-        <v>306</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3306,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E101">
         <v>2025</v>
@@ -3315,10 +3489,13 @@
         <v>60</v>
       </c>
       <c r="G101" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H101">
+        <v>71</v>
       </c>
       <c r="I101">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3332,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E102">
         <v>2025</v>
@@ -3344,10 +3521,10 @@
         <v>61</v>
       </c>
       <c r="H102">
-        <v>336</v>
+        <v>484</v>
       </c>
       <c r="I102">
-        <v>336</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3361,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E103">
         <v>2025</v>
@@ -3372,8 +3549,11 @@
       <c r="G103" t="s">
         <v>62</v>
       </c>
+      <c r="H103">
+        <v>31</v>
+      </c>
       <c r="I103">
-        <v>21</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3387,7 +3567,7 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E104">
         <v>2025</v>
@@ -3399,7 +3579,10 @@
         <v>63</v>
       </c>
       <c r="H104">
-        <v>21</v>
+        <v>363</v>
+      </c>
+      <c r="I104">
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3413,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E105">
         <v>2025</v>
@@ -3425,10 +3608,10 @@
         <v>64</v>
       </c>
       <c r="H105">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="I105">
-        <v>252</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3436,13 +3619,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E106">
         <v>2025</v>
@@ -3451,10 +3634,13 @@
         <v>60</v>
       </c>
       <c r="G106" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H106">
+        <v>415</v>
       </c>
       <c r="I106">
-        <v>84</v>
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3462,13 +3648,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E107">
         <v>2025</v>
@@ -3477,13 +3663,13 @@
         <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H107">
-        <v>700</v>
+        <v>34</v>
       </c>
       <c r="I107">
-        <v>700</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3491,13 +3677,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E108">
         <v>2025</v>
@@ -3506,10 +3692,10 @@
         <v>60</v>
       </c>
       <c r="G108" t="s">
-        <v>62</v>
-      </c>
-      <c r="I108">
-        <v>43.75</v>
+        <v>63</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3517,13 +3703,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E109">
         <v>2025</v>
@@ -3532,10 +3718,13 @@
         <v>60</v>
       </c>
       <c r="G109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H109">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="I109">
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3543,13 +3732,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E110">
         <v>2025</v>
@@ -3558,13 +3747,13 @@
         <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H110">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="I110">
-        <v>525</v>
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3572,13 +3761,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>2025</v>
@@ -3587,10 +3776,13 @@
         <v>60</v>
       </c>
       <c r="G111" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H111">
+        <v>63</v>
       </c>
       <c r="I111">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3598,13 +3790,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>2025</v>
@@ -3613,13 +3805,10 @@
         <v>60</v>
       </c>
       <c r="G112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H112">
-        <v>300</v>
-      </c>
-      <c r="I112">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3627,13 +3816,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E113">
         <v>2025</v>
@@ -3642,10 +3831,13 @@
         <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H113">
+        <v>155</v>
       </c>
       <c r="I113">
-        <v>18.75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3653,13 +3845,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E114">
         <v>2025</v>
@@ -3668,10 +3860,13 @@
         <v>60</v>
       </c>
       <c r="G114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H114">
-        <v>19</v>
+        <v>505</v>
+      </c>
+      <c r="I114">
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3679,13 +3874,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E115">
         <v>2025</v>
@@ -3694,13 +3889,13 @@
         <v>60</v>
       </c>
       <c r="G115" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H115">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="I115">
-        <v>225</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3708,13 +3903,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E116">
         <v>2025</v>
@@ -3723,10 +3918,10 @@
         <v>60</v>
       </c>
       <c r="G116" t="s">
-        <v>65</v>
-      </c>
-      <c r="I116">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3734,13 +3929,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E117">
         <v>2025</v>
@@ -3749,13 +3944,13 @@
         <v>60</v>
       </c>
       <c r="G117" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H117">
-        <v>436</v>
+        <v>101</v>
       </c>
       <c r="I117">
-        <v>436</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3763,13 +3958,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E118">
         <v>2025</v>
@@ -3778,10 +3973,13 @@
         <v>60</v>
       </c>
       <c r="G118" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H118">
+        <v>400</v>
       </c>
       <c r="I118">
-        <v>27.25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3789,13 +3987,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E119">
         <v>2025</v>
@@ -3804,10 +4002,13 @@
         <v>60</v>
       </c>
       <c r="G119" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H119">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="I119">
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3815,13 +4016,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E120">
         <v>2025</v>
@@ -3830,13 +4031,10 @@
         <v>60</v>
       </c>
       <c r="G120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H120">
-        <v>327</v>
-      </c>
-      <c r="I120">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3844,13 +4042,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E121">
         <v>2025</v>
@@ -3859,10 +4057,13 @@
         <v>60</v>
       </c>
       <c r="G121" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H121">
+        <v>80</v>
       </c>
       <c r="I121">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3870,13 +4071,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E122">
         <v>2025</v>
@@ -3888,10 +4089,10 @@
         <v>61</v>
       </c>
       <c r="H122">
-        <v>284</v>
+        <v>415</v>
       </c>
       <c r="I122">
-        <v>284</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3899,13 +4100,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E123">
         <v>2025</v>
@@ -3916,8 +4117,11 @@
       <c r="G123" t="s">
         <v>62</v>
       </c>
+      <c r="H123">
+        <v>33</v>
+      </c>
       <c r="I123">
-        <v>17.75</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3925,13 +4129,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E124">
         <v>2025</v>
@@ -3943,7 +4147,7 @@
         <v>63</v>
       </c>
       <c r="H124">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -3951,13 +4155,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E125">
         <v>2025</v>
@@ -3969,10 +4173,10 @@
         <v>64</v>
       </c>
       <c r="H125">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="I125">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -3980,13 +4184,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E126">
         <v>2025</v>
@@ -3995,10 +4199,13 @@
         <v>60</v>
       </c>
       <c r="G126" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H126">
+        <v>585</v>
       </c>
       <c r="I126">
-        <v>71</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4006,13 +4213,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E127">
         <v>2025</v>
@@ -4021,13 +4228,13 @@
         <v>60</v>
       </c>
       <c r="G127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H127">
-        <v>484</v>
+        <v>46</v>
       </c>
       <c r="I127">
-        <v>484</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4035,13 +4242,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E128">
         <v>2025</v>
@@ -4050,10 +4257,10 @@
         <v>60</v>
       </c>
       <c r="G128" t="s">
-        <v>62</v>
-      </c>
-      <c r="I128">
-        <v>30.25</v>
+        <v>63</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4061,13 +4268,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E129">
         <v>2025</v>
@@ -4076,10 +4283,13 @@
         <v>60</v>
       </c>
       <c r="G129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H129">
-        <v>31</v>
+        <v>117</v>
+      </c>
+      <c r="I129">
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4087,13 +4297,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E130">
         <v>2025</v>
@@ -4102,13 +4312,13 @@
         <v>60</v>
       </c>
       <c r="G130" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H130">
-        <v>363</v>
+        <v>1005</v>
       </c>
       <c r="I130">
-        <v>363</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4116,13 +4326,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E131">
         <v>2025</v>
@@ -4131,10 +4341,13 @@
         <v>60</v>
       </c>
       <c r="G131" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H131">
+        <v>80</v>
       </c>
       <c r="I131">
-        <v>121</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4145,10 +4358,10 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E132">
         <v>2025</v>
@@ -4157,13 +4370,10 @@
         <v>60</v>
       </c>
       <c r="G132" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H132">
-        <v>415</v>
-      </c>
-      <c r="I132">
-        <v>415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4174,10 +4384,10 @@
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E133">
         <v>2025</v>
@@ -4186,10 +4396,13 @@
         <v>60</v>
       </c>
       <c r="G133" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H133">
+        <v>201</v>
       </c>
       <c r="I133">
-        <v>33.2</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4200,10 +4413,10 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E134">
         <v>2025</v>
@@ -4212,10 +4425,13 @@
         <v>60</v>
       </c>
       <c r="G134" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H134">
-        <v>34</v>
+        <v>605</v>
+      </c>
+      <c r="I134">
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4226,10 +4442,10 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E135">
         <v>2025</v>
@@ -4238,10 +4454,13 @@
         <v>60</v>
       </c>
       <c r="G135" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="I135">
+        <v>48.40000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4252,10 +4471,10 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E136">
         <v>2025</v>
@@ -4264,10 +4483,10 @@
         <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>65</v>
-      </c>
-      <c r="I136">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4278,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E137">
         <v>2025</v>
@@ -4290,13 +4509,13 @@
         <v>60</v>
       </c>
       <c r="G137" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H137">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="I137">
-        <v>775</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4307,10 +4526,10 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E138">
         <v>2025</v>
@@ -4319,10 +4538,13 @@
         <v>60</v>
       </c>
       <c r="G138" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H138">
+        <v>560</v>
       </c>
       <c r="I138">
-        <v>62</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4333,10 +4555,10 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E139">
         <v>2025</v>
@@ -4345,10 +4567,13 @@
         <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H139">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="I139">
+        <v>44.8</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4359,10 +4584,10 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E140">
         <v>2025</v>
@@ -4371,7 +4596,7 @@
         <v>60</v>
       </c>
       <c r="G140" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4385,10 +4610,10 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E141">
         <v>2025</v>
@@ -4397,10 +4622,13 @@
         <v>60</v>
       </c>
       <c r="G141" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H141">
+        <v>112</v>
       </c>
       <c r="I141">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4411,10 +4639,10 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E142">
         <v>2025</v>
@@ -4426,10 +4654,10 @@
         <v>61</v>
       </c>
       <c r="H142">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="I142">
-        <v>490</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4440,10 +4668,10 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E143">
         <v>2025</v>
@@ -4454,8 +4682,11 @@
       <c r="G143" t="s">
         <v>62</v>
       </c>
+      <c r="H143">
+        <v>34</v>
+      </c>
       <c r="I143">
-        <v>39.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4466,10 +4697,10 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E144">
         <v>2025</v>
@@ -4481,7 +4712,7 @@
         <v>63</v>
       </c>
       <c r="H144">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4492,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E145">
         <v>2025</v>
@@ -4507,7 +4738,10 @@
         <v>64</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="I145">
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4518,10 +4752,10 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E146">
         <v>2025</v>
@@ -4530,10 +4764,13 @@
         <v>60</v>
       </c>
       <c r="G146" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H146">
+        <v>1190</v>
       </c>
       <c r="I146">
-        <v>95</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4544,10 +4781,10 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E147">
         <v>2025</v>
@@ -4556,13 +4793,13 @@
         <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H147">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="I147">
-        <v>400</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4573,10 +4810,10 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E148">
         <v>2025</v>
@@ -4585,10 +4822,10 @@
         <v>60</v>
       </c>
       <c r="G148" t="s">
-        <v>62</v>
-      </c>
-      <c r="I148">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4599,10 +4836,10 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E149">
         <v>2025</v>
@@ -4611,10 +4848,13 @@
         <v>60</v>
       </c>
       <c r="G149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H149">
-        <v>32</v>
+        <v>238</v>
+      </c>
+      <c r="I149">
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4625,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E150">
         <v>2025</v>
@@ -4637,10 +4877,13 @@
         <v>60</v>
       </c>
       <c r="G150" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="I150">
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4651,10 +4894,10 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E151">
         <v>2025</v>
@@ -4663,10 +4906,13 @@
         <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H151">
+        <v>51</v>
       </c>
       <c r="I151">
-        <v>80</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4680,7 +4926,7 @@
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E152">
         <v>2025</v>
@@ -4689,13 +4935,10 @@
         <v>60</v>
       </c>
       <c r="G152" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H152">
-        <v>415</v>
-      </c>
-      <c r="I152">
-        <v>415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4709,7 +4952,7 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E153">
         <v>2025</v>
@@ -4718,10 +4961,13 @@
         <v>60</v>
       </c>
       <c r="G153" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H153">
+        <v>128</v>
       </c>
       <c r="I153">
-        <v>33.2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4735,7 +4981,7 @@
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E154">
         <v>2025</v>
@@ -4744,10 +4990,13 @@
         <v>60</v>
       </c>
       <c r="G154" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H154">
-        <v>33</v>
+        <v>350</v>
+      </c>
+      <c r="I154">
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4761,7 +5010,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E155">
         <v>2025</v>
@@ -4770,10 +5019,13 @@
         <v>60</v>
       </c>
       <c r="G155" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="I155">
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4787,7 +5039,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E156">
         <v>2025</v>
@@ -4796,10 +5048,10 @@
         <v>60</v>
       </c>
       <c r="G156" t="s">
-        <v>65</v>
-      </c>
-      <c r="I156">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4813,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E157">
         <v>2025</v>
@@ -4822,13 +5074,13 @@
         <v>60</v>
       </c>
       <c r="G157" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H157">
-        <v>585</v>
+        <v>70</v>
       </c>
       <c r="I157">
-        <v>585</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4842,7 +5094,7 @@
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E158">
         <v>2025</v>
@@ -4851,10 +5103,13 @@
         <v>60</v>
       </c>
       <c r="G158" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H158">
+        <v>580</v>
       </c>
       <c r="I158">
-        <v>46.8</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4868,7 +5123,7 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E159">
         <v>2025</v>
@@ -4877,10 +5132,13 @@
         <v>60</v>
       </c>
       <c r="G159" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H159">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="I159">
+        <v>46.40000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -4894,7 +5152,7 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E160">
         <v>2025</v>
@@ -4903,7 +5161,7 @@
         <v>60</v>
       </c>
       <c r="G160" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -4920,7 +5178,7 @@
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E161">
         <v>2025</v>
@@ -4929,10 +5187,13 @@
         <v>60</v>
       </c>
       <c r="G161" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H161">
+        <v>116</v>
       </c>
       <c r="I161">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -4943,10 +5204,10 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E162">
         <v>2025</v>
@@ -4958,10 +5219,10 @@
         <v>61</v>
       </c>
       <c r="H162">
-        <v>1005</v>
+        <v>725</v>
       </c>
       <c r="I162">
-        <v>1005</v>
+        <v>725</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4972,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E163">
         <v>2025</v>
@@ -4986,8 +5247,11 @@
       <c r="G163" t="s">
         <v>62</v>
       </c>
+      <c r="H163">
+        <v>58</v>
+      </c>
       <c r="I163">
-        <v>80.40000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -4998,10 +5262,10 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E164">
         <v>2025</v>
@@ -5013,7 +5277,7 @@
         <v>63</v>
       </c>
       <c r="H164">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5024,10 +5288,10 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E165">
         <v>2025</v>
@@ -5039,7 +5303,10 @@
         <v>64</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="I165">
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5050,10 +5317,10 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E166">
         <v>2025</v>
@@ -5062,10 +5329,13 @@
         <v>60</v>
       </c>
       <c r="G166" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H166">
+        <v>340</v>
       </c>
       <c r="I166">
-        <v>201</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5076,10 +5346,10 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E167">
         <v>2025</v>
@@ -5088,13 +5358,13 @@
         <v>60</v>
       </c>
       <c r="G167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H167">
-        <v>605</v>
+        <v>27</v>
       </c>
       <c r="I167">
-        <v>605</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5105,10 +5375,10 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E168">
         <v>2025</v>
@@ -5117,10 +5387,10 @@
         <v>60</v>
       </c>
       <c r="G168" t="s">
-        <v>62</v>
-      </c>
-      <c r="I168">
-        <v>48.40000000000001</v>
+        <v>63</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5131,10 +5401,10 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E169">
         <v>2025</v>
@@ -5143,10 +5413,13 @@
         <v>60</v>
       </c>
       <c r="G169" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H169">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="I169">
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5157,10 +5430,10 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E170">
         <v>2025</v>
@@ -5169,10 +5442,13 @@
         <v>60</v>
       </c>
       <c r="G170" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>920</v>
+      </c>
+      <c r="I170">
+        <v>920</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5183,10 +5459,10 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E171">
         <v>2025</v>
@@ -5195,10 +5471,13 @@
         <v>60</v>
       </c>
       <c r="G171" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H171">
+        <v>73</v>
       </c>
       <c r="I171">
-        <v>121</v>
+        <v>73.60000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5209,10 +5488,10 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E172">
         <v>2025</v>
@@ -5221,13 +5500,10 @@
         <v>60</v>
       </c>
       <c r="G172" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H172">
-        <v>560</v>
-      </c>
-      <c r="I172">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5238,10 +5514,10 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E173">
         <v>2025</v>
@@ -5250,1151 +5526,12 @@
         <v>60</v>
       </c>
       <c r="G173" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="H173">
+        <v>184</v>
       </c>
       <c r="I173">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" t="s">
-        <v>51</v>
-      </c>
-      <c r="E174">
-        <v>2025</v>
-      </c>
-      <c r="F174" t="s">
-        <v>60</v>
-      </c>
-      <c r="G174" t="s">
-        <v>63</v>
-      </c>
-      <c r="H174">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" t="s">
-        <v>51</v>
-      </c>
-      <c r="E175">
-        <v>2025</v>
-      </c>
-      <c r="F175" t="s">
-        <v>60</v>
-      </c>
-      <c r="G175" t="s">
-        <v>64</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" t="s">
-        <v>51</v>
-      </c>
-      <c r="E176">
-        <v>2025</v>
-      </c>
-      <c r="F176" t="s">
-        <v>60</v>
-      </c>
-      <c r="G176" t="s">
-        <v>65</v>
-      </c>
-      <c r="I176">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" t="s">
-        <v>52</v>
-      </c>
-      <c r="E177">
-        <v>2025</v>
-      </c>
-      <c r="F177" t="s">
-        <v>60</v>
-      </c>
-      <c r="G177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H177">
-        <v>425</v>
-      </c>
-      <c r="I177">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" t="s">
-        <v>15</v>
-      </c>
-      <c r="D178" t="s">
-        <v>52</v>
-      </c>
-      <c r="E178">
-        <v>2025</v>
-      </c>
-      <c r="F178" t="s">
-        <v>60</v>
-      </c>
-      <c r="G178" t="s">
-        <v>62</v>
-      </c>
-      <c r="I178">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179" t="s">
-        <v>52</v>
-      </c>
-      <c r="E179">
-        <v>2025</v>
-      </c>
-      <c r="F179" t="s">
-        <v>60</v>
-      </c>
-      <c r="G179" t="s">
-        <v>63</v>
-      </c>
-      <c r="H179">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" t="s">
-        <v>52</v>
-      </c>
-      <c r="E180">
-        <v>2025</v>
-      </c>
-      <c r="F180" t="s">
-        <v>60</v>
-      </c>
-      <c r="G180" t="s">
-        <v>64</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>9</v>
-      </c>
-      <c r="C181" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" t="s">
-        <v>52</v>
-      </c>
-      <c r="E181">
-        <v>2025</v>
-      </c>
-      <c r="F181" t="s">
-        <v>60</v>
-      </c>
-      <c r="G181" t="s">
-        <v>65</v>
-      </c>
-      <c r="I181">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>53</v>
-      </c>
-      <c r="E182">
-        <v>2025</v>
-      </c>
-      <c r="F182" t="s">
-        <v>60</v>
-      </c>
-      <c r="G182" t="s">
-        <v>61</v>
-      </c>
-      <c r="H182">
-        <v>1190</v>
-      </c>
-      <c r="I182">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>9</v>
-      </c>
-      <c r="C183" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" t="s">
-        <v>53</v>
-      </c>
-      <c r="E183">
-        <v>2025</v>
-      </c>
-      <c r="F183" t="s">
-        <v>60</v>
-      </c>
-      <c r="G183" t="s">
-        <v>62</v>
-      </c>
-      <c r="I183">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184" t="s">
-        <v>53</v>
-      </c>
-      <c r="E184">
-        <v>2025</v>
-      </c>
-      <c r="F184" t="s">
-        <v>60</v>
-      </c>
-      <c r="G184" t="s">
-        <v>63</v>
-      </c>
-      <c r="H184">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" t="s">
-        <v>53</v>
-      </c>
-      <c r="E185">
-        <v>2025</v>
-      </c>
-      <c r="F185" t="s">
-        <v>60</v>
-      </c>
-      <c r="G185" t="s">
-        <v>64</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" t="s">
-        <v>53</v>
-      </c>
-      <c r="E186">
-        <v>2025</v>
-      </c>
-      <c r="F186" t="s">
-        <v>60</v>
-      </c>
-      <c r="G186" t="s">
-        <v>65</v>
-      </c>
-      <c r="I186">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>9</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>54</v>
-      </c>
-      <c r="E187">
-        <v>2025</v>
-      </c>
-      <c r="F187" t="s">
-        <v>60</v>
-      </c>
-      <c r="G187" t="s">
-        <v>61</v>
-      </c>
-      <c r="H187">
-        <v>640</v>
-      </c>
-      <c r="I187">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>9</v>
-      </c>
-      <c r="C188" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" t="s">
-        <v>54</v>
-      </c>
-      <c r="E188">
-        <v>2025</v>
-      </c>
-      <c r="F188" t="s">
-        <v>60</v>
-      </c>
-      <c r="G188" t="s">
-        <v>62</v>
-      </c>
-      <c r="I188">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>9</v>
-      </c>
-      <c r="C189" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" t="s">
-        <v>54</v>
-      </c>
-      <c r="E189">
-        <v>2025</v>
-      </c>
-      <c r="F189" t="s">
-        <v>60</v>
-      </c>
-      <c r="G189" t="s">
-        <v>63</v>
-      </c>
-      <c r="H189">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" t="s">
-        <v>54</v>
-      </c>
-      <c r="E190">
-        <v>2025</v>
-      </c>
-      <c r="F190" t="s">
-        <v>60</v>
-      </c>
-      <c r="G190" t="s">
-        <v>64</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>9</v>
-      </c>
-      <c r="C191" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" t="s">
-        <v>54</v>
-      </c>
-      <c r="E191">
-        <v>2025</v>
-      </c>
-      <c r="F191" t="s">
-        <v>60</v>
-      </c>
-      <c r="G191" t="s">
-        <v>65</v>
-      </c>
-      <c r="I191">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>9</v>
-      </c>
-      <c r="C192" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" t="s">
-        <v>55</v>
-      </c>
-      <c r="E192">
-        <v>2025</v>
-      </c>
-      <c r="F192" t="s">
-        <v>60</v>
-      </c>
-      <c r="G192" t="s">
-        <v>61</v>
-      </c>
-      <c r="H192">
-        <v>350</v>
-      </c>
-      <c r="I192">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" t="s">
-        <v>15</v>
-      </c>
-      <c r="D193" t="s">
-        <v>55</v>
-      </c>
-      <c r="E193">
-        <v>2025</v>
-      </c>
-      <c r="F193" t="s">
-        <v>60</v>
-      </c>
-      <c r="G193" t="s">
-        <v>62</v>
-      </c>
-      <c r="I193">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>9</v>
-      </c>
-      <c r="C194" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E194">
-        <v>2025</v>
-      </c>
-      <c r="F194" t="s">
-        <v>60</v>
-      </c>
-      <c r="G194" t="s">
-        <v>63</v>
-      </c>
-      <c r="H194">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" t="s">
-        <v>9</v>
-      </c>
-      <c r="C195" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" t="s">
-        <v>55</v>
-      </c>
-      <c r="E195">
-        <v>2025</v>
-      </c>
-      <c r="F195" t="s">
-        <v>60</v>
-      </c>
-      <c r="G195" t="s">
-        <v>64</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196" t="s">
-        <v>15</v>
-      </c>
-      <c r="D196" t="s">
-        <v>55</v>
-      </c>
-      <c r="E196">
-        <v>2025</v>
-      </c>
-      <c r="F196" t="s">
-        <v>60</v>
-      </c>
-      <c r="G196" t="s">
-        <v>65</v>
-      </c>
-      <c r="I196">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" t="s">
-        <v>56</v>
-      </c>
-      <c r="E197">
-        <v>2025</v>
-      </c>
-      <c r="F197" t="s">
-        <v>60</v>
-      </c>
-      <c r="G197" t="s">
-        <v>61</v>
-      </c>
-      <c r="H197">
-        <v>580</v>
-      </c>
-      <c r="I197">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" t="s">
-        <v>9</v>
-      </c>
-      <c r="C198" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" t="s">
-        <v>56</v>
-      </c>
-      <c r="E198">
-        <v>2025</v>
-      </c>
-      <c r="F198" t="s">
-        <v>60</v>
-      </c>
-      <c r="G198" t="s">
-        <v>62</v>
-      </c>
-      <c r="I198">
-        <v>46.40000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>9</v>
-      </c>
-      <c r="C199" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" t="s">
-        <v>56</v>
-      </c>
-      <c r="E199">
-        <v>2025</v>
-      </c>
-      <c r="F199" t="s">
-        <v>60</v>
-      </c>
-      <c r="G199" t="s">
-        <v>63</v>
-      </c>
-      <c r="H199">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>9</v>
-      </c>
-      <c r="C200" t="s">
-        <v>15</v>
-      </c>
-      <c r="D200" t="s">
-        <v>56</v>
-      </c>
-      <c r="E200">
-        <v>2025</v>
-      </c>
-      <c r="F200" t="s">
-        <v>60</v>
-      </c>
-      <c r="G200" t="s">
-        <v>64</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>9</v>
-      </c>
-      <c r="C201" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" t="s">
-        <v>56</v>
-      </c>
-      <c r="E201">
-        <v>2025</v>
-      </c>
-      <c r="F201" t="s">
-        <v>60</v>
-      </c>
-      <c r="G201" t="s">
-        <v>65</v>
-      </c>
-      <c r="I201">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>57</v>
-      </c>
-      <c r="E202">
-        <v>2025</v>
-      </c>
-      <c r="F202" t="s">
-        <v>60</v>
-      </c>
-      <c r="G202" t="s">
-        <v>61</v>
-      </c>
-      <c r="H202">
-        <v>725</v>
-      </c>
-      <c r="I202">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>9</v>
-      </c>
-      <c r="C203" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" t="s">
-        <v>57</v>
-      </c>
-      <c r="E203">
-        <v>2025</v>
-      </c>
-      <c r="F203" t="s">
-        <v>60</v>
-      </c>
-      <c r="G203" t="s">
-        <v>62</v>
-      </c>
-      <c r="I203">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" t="s">
-        <v>57</v>
-      </c>
-      <c r="E204">
-        <v>2025</v>
-      </c>
-      <c r="F204" t="s">
-        <v>60</v>
-      </c>
-      <c r="G204" t="s">
-        <v>63</v>
-      </c>
-      <c r="H204">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>57</v>
-      </c>
-      <c r="E205">
-        <v>2025</v>
-      </c>
-      <c r="F205" t="s">
-        <v>60</v>
-      </c>
-      <c r="G205" t="s">
-        <v>64</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>57</v>
-      </c>
-      <c r="E206">
-        <v>2025</v>
-      </c>
-      <c r="F206" t="s">
-        <v>60</v>
-      </c>
-      <c r="G206" t="s">
-        <v>65</v>
-      </c>
-      <c r="I206">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>9</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>58</v>
-      </c>
-      <c r="E207">
-        <v>2025</v>
-      </c>
-      <c r="F207" t="s">
-        <v>60</v>
-      </c>
-      <c r="G207" t="s">
-        <v>61</v>
-      </c>
-      <c r="H207">
-        <v>340</v>
-      </c>
-      <c r="I207">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" t="s">
-        <v>58</v>
-      </c>
-      <c r="E208">
-        <v>2025</v>
-      </c>
-      <c r="F208" t="s">
-        <v>60</v>
-      </c>
-      <c r="G208" t="s">
-        <v>62</v>
-      </c>
-      <c r="I208">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>58</v>
-      </c>
-      <c r="E209">
-        <v>2025</v>
-      </c>
-      <c r="F209" t="s">
-        <v>60</v>
-      </c>
-      <c r="G209" t="s">
-        <v>63</v>
-      </c>
-      <c r="H209">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" t="s">
-        <v>58</v>
-      </c>
-      <c r="E210">
-        <v>2025</v>
-      </c>
-      <c r="F210" t="s">
-        <v>60</v>
-      </c>
-      <c r="G210" t="s">
-        <v>64</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" t="s">
-        <v>58</v>
-      </c>
-      <c r="E211">
-        <v>2025</v>
-      </c>
-      <c r="F211" t="s">
-        <v>60</v>
-      </c>
-      <c r="G211" t="s">
-        <v>65</v>
-      </c>
-      <c r="I211">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>59</v>
-      </c>
-      <c r="E212">
-        <v>2025</v>
-      </c>
-      <c r="F212" t="s">
-        <v>60</v>
-      </c>
-      <c r="G212" t="s">
-        <v>61</v>
-      </c>
-      <c r="H212">
-        <v>920</v>
-      </c>
-      <c r="I212">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" t="s">
-        <v>59</v>
-      </c>
-      <c r="E213">
-        <v>2025</v>
-      </c>
-      <c r="F213" t="s">
-        <v>60</v>
-      </c>
-      <c r="G213" t="s">
-        <v>62</v>
-      </c>
-      <c r="I213">
-        <v>73.60000000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" t="s">
-        <v>16</v>
-      </c>
-      <c r="D214" t="s">
-        <v>59</v>
-      </c>
-      <c r="E214">
-        <v>2025</v>
-      </c>
-      <c r="F214" t="s">
-        <v>60</v>
-      </c>
-      <c r="G214" t="s">
-        <v>63</v>
-      </c>
-      <c r="H214">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" t="s">
-        <v>16</v>
-      </c>
-      <c r="D215" t="s">
-        <v>59</v>
-      </c>
-      <c r="E215">
-        <v>2025</v>
-      </c>
-      <c r="F215" t="s">
-        <v>60</v>
-      </c>
-      <c r="G215" t="s">
-        <v>64</v>
-      </c>
-      <c r="H215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="C216" t="s">
-        <v>16</v>
-      </c>
-      <c r="D216" t="s">
-        <v>59</v>
-      </c>
-      <c r="E216">
-        <v>2025</v>
-      </c>
-      <c r="F216" t="s">
-        <v>60</v>
-      </c>
-      <c r="G216" t="s">
-        <v>65</v>
-      </c>
-      <c r="I216">
         <v>184</v>
       </c>
     </row>

--- a/Quality reports shared/seed distribution.xlsx
+++ b/Quality reports shared/seed distribution.xlsx
@@ -2248,7 +2248,7 @@
         <v>120</v>
       </c>
       <c r="I58">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2306,7 +2306,7 @@
         <v>120</v>
       </c>
       <c r="I60">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3866,7 +3866,7 @@
         <v>505</v>
       </c>
       <c r="I114">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3895,7 +3895,7 @@
         <v>40</v>
       </c>
       <c r="I115">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3950,7 +3950,7 @@
         <v>101</v>
       </c>
       <c r="I117">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4289,7 +4289,7 @@
         <v>117</v>
       </c>
       <c r="I129">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4854,7 +4854,7 @@
         <v>238</v>
       </c>
       <c r="I149">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5080,7 +5080,7 @@
         <v>70</v>
       </c>
       <c r="I157">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:9">
